--- a/Data/FULL_DATA_REPORT_withnotes.xlsx
+++ b/Data/FULL_DATA_REPORT_withnotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_code\WY-zoops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055E7514-E505-45C1-B849-E5E8AF35AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BFF223-297D-4BC2-94F6-FA1B3B76717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0305F5BE-2DA6-3446-8755-53421B5F2D42}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="318">
   <si>
     <t>Site_ID_pseudonym</t>
   </si>
@@ -950,26 +950,50 @@
     <t>zoop samples from willie lab - photo text 7/8/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Boysen LPD 10/11/22 </t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>No data from ashleigh matching this</t>
-  </si>
-  <si>
-    <t>JKL North 10-6-22</t>
-  </si>
-  <si>
     <t>No data matching</t>
+  </si>
+  <si>
+    <t>BOY_LPD_20221011</t>
+  </si>
+  <si>
+    <t>BOY_TPD_20221615</t>
+  </si>
+  <si>
+    <t>JKL_NORTH_20221006</t>
+  </si>
+  <si>
+    <t>ALS_P3_20220912</t>
+  </si>
+  <si>
+    <t>ALS_P1_20220912</t>
+  </si>
+  <si>
+    <t>BOY_RPD_20220712_</t>
+  </si>
+  <si>
+    <t>ALS_P1_20220912_DUP</t>
+  </si>
+  <si>
+    <t>ALS_P2_20220912</t>
+  </si>
+  <si>
+    <t>No data matching - but we have 2022-09-02 prioritized for sia</t>
+  </si>
+  <si>
+    <t>THIS HAS BEEN RUN!!</t>
+  </si>
+  <si>
+    <t>Zoop and WQ data available,  on the prioritize list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1106,6 +1130,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1515,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1894,7 +1926,7 @@
   <dimension ref="A1:AV216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1947,7 +1979,7 @@
         <v>304</v>
       </c>
       <c r="T1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1992,12 +2024,12 @@
       <c r="Q2" s="12">
         <v>22</v>
       </c>
-      <c r="R2"/>
+      <c r="R2" s="13"/>
       <c r="S2" t="s">
-        <v>305</v>
-      </c>
-      <c r="T2" t="s">
         <v>307</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
@@ -2072,10 +2104,10 @@
       </c>
       <c r="R3"/>
       <c r="S3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T3" t="s">
-        <v>309</v>
+        <v>48</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -2147,8 +2179,12 @@
         <v>20</v>
       </c>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="S4" t="s">
+        <v>308</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>317</v>
+      </c>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -2218,11 +2254,15 @@
         <v>286</v>
       </c>
       <c r="Q5" s="12">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="S5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>317</v>
+      </c>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -2295,8 +2335,12 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="S6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>317</v>
+      </c>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2365,8 +2409,12 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="S7" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>317</v>
+      </c>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -2435,8 +2483,12 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
+      <c r="S8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>306</v>
+      </c>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -2505,8 +2557,12 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+      <c r="S9" t="s">
+        <v>310</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -2575,8 +2631,12 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="S10" t="s">
+        <v>313</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -2645,8 +2705,12 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="S11" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -2713,8 +2777,12 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
+      <c r="S12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>317</v>
+      </c>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -2781,8 +2849,12 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
+      <c r="S13" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>306</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -2849,8 +2921,12 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="S14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -2917,8 +2993,12 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="S15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>316</v>
+      </c>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -3741,12 +3821,14 @@
       <c r="H27" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s">
-        <v>21</v>
+      <c r="I27" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
+      <c r="L27" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -5053,12 +5135,14 @@
       <c r="H46" t="s">
         <v>15</v>
       </c>
-      <c r="I46" t="s">
-        <v>21</v>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
+      <c r="L46" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
@@ -7154,38 +7238,38 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E100" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="1">
         <v>44735</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" s="13" t="s">
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="13" t="s">
+      <c r="M100" t="s">
         <v>293</v>
       </c>
-      <c r="N100" s="13" t="s">
+      <c r="N100" t="s">
         <v>302</v>
       </c>
     </row>

--- a/Data/FULL_DATA_REPORT_withnotes.xlsx
+++ b/Data/FULL_DATA_REPORT_withnotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_code\WY-zoops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE781670-2609-450D-852C-905C7CDC4480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D5A47-D035-4748-A420-18E468C0CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0305F5BE-2DA6-3446-8755-53421B5F2D42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0305F5BE-2DA6-3446-8755-53421B5F2D42}"/>
   </bookViews>
   <sheets>
     <sheet name="FULL_DATA_REPORT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="494">
   <si>
     <t>Site_ID_pseudonym</t>
   </si>
@@ -1538,7 +1538,22 @@
     <t>check on these MIGHT BE MISLABELED HERE  - maybe don't process</t>
   </si>
   <si>
-    <t>check on these MIGHT BE MISLABELED HERE  - maybe don't process (a GRY _P3 was set out for SIA)</t>
+    <t>3m?</t>
+  </si>
+  <si>
+    <t>X - this has 2 bottles, one is clear the other is dry as a bone. Cannot run.</t>
+  </si>
+  <si>
+    <t>X - since P3 is unprocessable, this is a lower priority - leave unprocessed for now</t>
+  </si>
+  <si>
+    <t>X - already processed on 7/16</t>
+  </si>
+  <si>
+    <t>X - already processed on 7/17</t>
+  </si>
+  <si>
+    <t>check on these MIGHT BE MISLABELED HERE  - maybe don't process (a GRY _P3 was set out for SIA -- 11m?)</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1561,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -2116,7 +2131,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2147,17 +2162,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="20" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2535,14 +2548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E8F43-16B1-5A45-A0C9-751BB14275FB}">
   <dimension ref="A1:AV216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P117" sqref="P117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="31"/>
+    <col min="6" max="6" width="11.19921875" style="29"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="13" max="18" width="10.69921875"/>
     <col min="19" max="19" width="41.19921875" bestFit="1" customWidth="1"/>
@@ -2565,7 +2578,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2609,7 +2622,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="29">
         <v>44361</v>
       </c>
       <c r="G2" t="s">
@@ -2687,7 +2700,7 @@
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <v>44361</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2765,7 +2778,7 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>44361</v>
       </c>
       <c r="G4" t="s">
@@ -2841,7 +2854,7 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>44361</v>
       </c>
       <c r="G5" t="s">
@@ -2919,7 +2932,7 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <v>44361</v>
       </c>
       <c r="G6" t="s">
@@ -2997,7 +3010,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <v>44397</v>
       </c>
       <c r="G7" t="s">
@@ -3071,7 +3084,7 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <v>44397</v>
       </c>
       <c r="G8" t="s">
@@ -3145,7 +3158,7 @@
       <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <v>44397</v>
       </c>
       <c r="G9" t="s">
@@ -3219,7 +3232,7 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>44432</v>
       </c>
       <c r="G10" t="s">
@@ -3293,7 +3306,7 @@
       <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <v>44432</v>
       </c>
       <c r="G11" t="s">
@@ -3367,7 +3380,7 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>44715</v>
       </c>
       <c r="G12" t="s">
@@ -3439,7 +3452,7 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <v>44715</v>
       </c>
       <c r="G13" t="s">
@@ -3511,7 +3524,7 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <v>44733</v>
       </c>
       <c r="G14" t="s">
@@ -3583,7 +3596,7 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <v>44733</v>
       </c>
       <c r="G15" t="s">
@@ -3655,7 +3668,7 @@
       <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <v>44733</v>
       </c>
       <c r="G16" t="s">
@@ -3723,7 +3736,7 @@
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="30">
         <v>44757</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -3793,7 +3806,7 @@
       <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <v>44757</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -3863,7 +3876,7 @@
       <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="30">
         <v>44757</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -3933,7 +3946,7 @@
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="30">
         <v>44785</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -4003,7 +4016,7 @@
       <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="30">
         <v>44785</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -4073,7 +4086,7 @@
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="30">
         <v>44785</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4143,7 +4156,7 @@
       <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="31">
         <v>44785</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -4213,7 +4226,7 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="29">
         <v>44806</v>
       </c>
       <c r="G24" t="s">
@@ -4283,7 +4296,7 @@
       <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="29">
         <v>44806</v>
       </c>
       <c r="G25" t="s">
@@ -4353,7 +4366,7 @@
       <c r="E26" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="29">
         <v>44806</v>
       </c>
       <c r="G26" t="s">
@@ -4423,7 +4436,7 @@
       <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <v>44851</v>
       </c>
       <c r="G27" t="s">
@@ -4493,7 +4506,7 @@
       <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="31">
         <v>44851</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -4563,7 +4576,7 @@
       <c r="E29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="31">
         <v>44851</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -4631,7 +4644,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="32">
         <v>44852</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -4701,7 +4714,7 @@
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="31">
         <v>44691</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -4769,7 +4782,7 @@
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="31">
         <v>44691</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -4839,7 +4852,7 @@
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="31">
         <v>44691</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -4907,7 +4920,7 @@
       <c r="E34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>44727</v>
       </c>
       <c r="G34" t="s">
@@ -4975,7 +4988,7 @@
       <c r="E35" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <v>44727</v>
       </c>
       <c r="G35" t="s">
@@ -5045,7 +5058,7 @@
       <c r="E36" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="29">
         <v>44727</v>
       </c>
       <c r="G36" t="s">
@@ -5115,7 +5128,7 @@
       <c r="E37" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="29">
         <v>44754</v>
       </c>
       <c r="G37" t="s">
@@ -5183,7 +5196,7 @@
       <c r="E38" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="29">
         <v>44754</v>
       </c>
       <c r="G38" t="s">
@@ -5253,7 +5266,7 @@
       <c r="E39" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="29">
         <v>44754</v>
       </c>
       <c r="G39" t="s">
@@ -5321,7 +5334,7 @@
       <c r="E40" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="29">
         <v>44802</v>
       </c>
       <c r="G40" t="s">
@@ -5391,7 +5404,7 @@
       <c r="E41" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="29">
         <v>44802</v>
       </c>
       <c r="G41" t="s">
@@ -5461,7 +5474,7 @@
       <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="29">
         <v>44802</v>
       </c>
       <c r="G42" t="s">
@@ -5529,7 +5542,7 @@
       <c r="E43" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="29">
         <v>44831</v>
       </c>
       <c r="G43" t="s">
@@ -5599,7 +5612,7 @@
       <c r="E44" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="29">
         <v>44831</v>
       </c>
       <c r="G44" t="s">
@@ -5667,7 +5680,7 @@
       <c r="E45" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="29">
         <v>44831</v>
       </c>
       <c r="G45" t="s">
@@ -5737,7 +5750,7 @@
       <c r="E46" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="29">
         <v>44853</v>
       </c>
       <c r="G46" t="s">
@@ -5807,7 +5820,7 @@
       <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="29">
         <v>44377</v>
       </c>
       <c r="G47" t="s">
@@ -5875,7 +5888,7 @@
       <c r="E48" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="29">
         <v>44377</v>
       </c>
       <c r="G48" t="s">
@@ -5943,7 +5956,7 @@
       <c r="E49" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="29">
         <v>44377</v>
       </c>
       <c r="G49" t="s">
@@ -6011,7 +6024,7 @@
       <c r="E50" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="29">
         <v>44377</v>
       </c>
       <c r="G50" t="s">
@@ -6079,7 +6092,7 @@
       <c r="E51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="32">
         <v>44377</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -6149,7 +6162,7 @@
       <c r="E52" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="29">
         <v>44377</v>
       </c>
       <c r="G52" t="s">
@@ -6217,7 +6230,7 @@
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="29">
         <v>44470</v>
       </c>
       <c r="G53" t="s">
@@ -6287,7 +6300,7 @@
       <c r="E54" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="29">
         <v>44470</v>
       </c>
       <c r="G54" t="s">
@@ -6357,7 +6370,7 @@
       <c r="E55" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="29">
         <v>44470</v>
       </c>
       <c r="G55" t="s">
@@ -6425,7 +6438,7 @@
       <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="31">
+      <c r="F56" s="29">
         <v>44356</v>
       </c>
       <c r="G56" t="s">
@@ -6493,7 +6506,7 @@
       <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="29">
         <v>44356</v>
       </c>
       <c r="G57" t="s">
@@ -6522,7 +6535,7 @@
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="32">
         <v>44356</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -6556,7 +6569,7 @@
       <c r="E59" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="31">
+      <c r="F59" s="29">
         <v>44356</v>
       </c>
       <c r="G59" t="s">
@@ -6585,7 +6598,7 @@
       <c r="E60" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="31">
+      <c r="F60" s="29">
         <v>44356</v>
       </c>
       <c r="G60" t="s">
@@ -6614,7 +6627,7 @@
       <c r="E61" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="31">
+      <c r="F61" s="29">
         <v>44389</v>
       </c>
       <c r="G61" t="s">
@@ -6643,7 +6656,7 @@
       <c r="E62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="31">
         <v>44389</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -6677,7 +6690,7 @@
       <c r="E63" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="31">
+      <c r="F63" s="29">
         <v>44389</v>
       </c>
       <c r="G63" t="s">
@@ -6706,7 +6719,7 @@
       <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F64" s="29">
         <v>44417</v>
       </c>
       <c r="G64" t="s">
@@ -6735,7 +6748,7 @@
       <c r="E65" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="31">
+      <c r="F65" s="29">
         <v>44417</v>
       </c>
       <c r="G65" t="s">
@@ -6764,7 +6777,7 @@
       <c r="E66" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="29">
         <v>44417</v>
       </c>
       <c r="G66" t="s">
@@ -6793,7 +6806,7 @@
       <c r="E67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F67" s="31">
         <v>44713</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -6827,7 +6840,7 @@
       <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="31">
         <v>44713</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -6861,7 +6874,7 @@
       <c r="E69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="31">
         <v>44713</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -6895,7 +6908,7 @@
       <c r="E70" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="29">
         <v>44743</v>
       </c>
       <c r="G70" t="s">
@@ -6927,7 +6940,7 @@
       <c r="E71" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="29">
         <v>44743</v>
       </c>
       <c r="G71" t="s">
@@ -6959,7 +6972,7 @@
       <c r="E72" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F72" s="29">
         <v>44743</v>
       </c>
       <c r="G72" t="s">
@@ -6991,7 +7004,7 @@
       <c r="E73" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="31">
+      <c r="F73" s="29">
         <v>44767</v>
       </c>
       <c r="G73" t="s">
@@ -7020,7 +7033,7 @@
       <c r="E74" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F74" s="29">
         <v>44767</v>
       </c>
       <c r="G74" t="s">
@@ -7049,7 +7062,7 @@
       <c r="E75" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="29">
         <v>44767</v>
       </c>
       <c r="G75" t="s">
@@ -7078,7 +7091,7 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="29">
         <v>44788</v>
       </c>
       <c r="G76" t="s">
@@ -7110,7 +7123,7 @@
       <c r="E77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="29">
         <v>44788</v>
       </c>
       <c r="G77" t="s">
@@ -7139,7 +7152,7 @@
       <c r="E78" t="s">
         <v>95</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="29">
         <v>44788</v>
       </c>
       <c r="G78" t="s">
@@ -7168,7 +7181,7 @@
       <c r="E79" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="29">
         <v>44788</v>
       </c>
       <c r="G79" t="s">
@@ -7200,7 +7213,7 @@
       <c r="E80" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="29">
         <v>44788</v>
       </c>
       <c r="G80" t="s">
@@ -7232,7 +7245,7 @@
       <c r="E81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="31">
         <v>44804</v>
       </c>
       <c r="G81" s="3" t="s">
@@ -7266,7 +7279,7 @@
       <c r="E82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="33">
+      <c r="F82" s="31">
         <v>44804</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -7300,7 +7313,7 @@
       <c r="E83" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="33">
+      <c r="F83" s="31">
         <v>44804</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -7334,7 +7347,7 @@
       <c r="E84" t="s">
         <v>187</v>
       </c>
-      <c r="F84" s="31">
+      <c r="F84" s="29">
         <v>44824</v>
       </c>
       <c r="G84" t="s">
@@ -7366,7 +7379,7 @@
       <c r="E85" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="31">
+      <c r="F85" s="29">
         <v>44824</v>
       </c>
       <c r="G85" t="s">
@@ -7395,7 +7408,7 @@
       <c r="E86" t="s">
         <v>192</v>
       </c>
-      <c r="F86" s="31">
+      <c r="F86" s="29">
         <v>44824</v>
       </c>
       <c r="G86" t="s">
@@ -7424,7 +7437,7 @@
       <c r="E87" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="31">
+      <c r="F87" s="29">
         <v>44853</v>
       </c>
       <c r="G87" t="s">
@@ -7453,7 +7466,7 @@
       <c r="E88" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="31">
+      <c r="F88" s="29">
         <v>44853</v>
       </c>
       <c r="G88" t="s">
@@ -7482,7 +7495,7 @@
       <c r="E89" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="31">
+      <c r="F89" s="29">
         <v>44853</v>
       </c>
       <c r="G89" t="s">
@@ -7514,7 +7527,7 @@
       <c r="E90" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="31">
+      <c r="F90" s="29">
         <v>44351</v>
       </c>
       <c r="G90" t="s">
@@ -7546,7 +7559,7 @@
       <c r="E91" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="31">
+      <c r="F91" s="29">
         <v>44351</v>
       </c>
       <c r="G91" t="s">
@@ -7578,7 +7591,7 @@
       <c r="E92" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="31">
+      <c r="F92" s="29">
         <v>44351</v>
       </c>
       <c r="G92" t="s">
@@ -7610,7 +7623,7 @@
       <c r="E93" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="31">
+      <c r="F93" s="29">
         <v>44391</v>
       </c>
       <c r="G93" t="s">
@@ -7639,7 +7652,7 @@
       <c r="E94" t="s">
         <v>27</v>
       </c>
-      <c r="F94" s="31">
+      <c r="F94" s="29">
         <v>44391</v>
       </c>
       <c r="G94" t="s">
@@ -7668,7 +7681,7 @@
       <c r="E95" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="31">
+      <c r="F95" s="29">
         <v>44391</v>
       </c>
       <c r="G95" t="s">
@@ -7697,7 +7710,7 @@
       <c r="E96" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="31">
+      <c r="F96" s="29">
         <v>44441</v>
       </c>
       <c r="G96" t="s">
@@ -7726,7 +7739,7 @@
       <c r="E97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="32">
         <v>44441</v>
       </c>
       <c r="G97" s="2" t="s">
@@ -7798,7 +7811,7 @@
       <c r="E98" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="31">
+      <c r="F98" s="29">
         <v>44441</v>
       </c>
       <c r="G98" t="s">
@@ -7827,7 +7840,7 @@
       <c r="E99" t="s">
         <v>31</v>
       </c>
-      <c r="F99" s="31">
+      <c r="F99" s="29">
         <v>44441</v>
       </c>
       <c r="G99" t="s">
@@ -7865,7 +7878,7 @@
       <c r="E100" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="31">
+      <c r="F100" s="29">
         <v>44735</v>
       </c>
       <c r="G100" t="s">
@@ -7900,7 +7913,7 @@
       <c r="E101" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="31">
+      <c r="F101" s="29">
         <v>44735</v>
       </c>
       <c r="G101" t="s">
@@ -7929,7 +7942,7 @@
       <c r="E102" t="s">
         <v>31</v>
       </c>
-      <c r="F102" s="31">
+      <c r="F102" s="29">
         <v>44735</v>
       </c>
       <c r="G102" t="s">
@@ -7958,7 +7971,7 @@
       <c r="E103" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="31">
+      <c r="F103" s="29">
         <v>44768</v>
       </c>
       <c r="G103" t="s">
@@ -7987,7 +8000,7 @@
       <c r="E104" t="s">
         <v>27</v>
       </c>
-      <c r="F104" s="31">
+      <c r="F104" s="29">
         <v>44768</v>
       </c>
       <c r="G104" t="s">
@@ -8016,7 +8029,7 @@
       <c r="E105" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="31">
+      <c r="F105" s="29">
         <v>44768</v>
       </c>
       <c r="G105" t="s">
@@ -8045,7 +8058,7 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="31">
+      <c r="F106" s="29">
         <v>44790</v>
       </c>
       <c r="G106" t="s">
@@ -8074,7 +8087,7 @@
       <c r="E107" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="31">
+      <c r="F107" s="29">
         <v>44790</v>
       </c>
       <c r="G107" t="s">
@@ -8103,7 +8116,7 @@
       <c r="E108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="34">
+      <c r="F108" s="32">
         <v>44790</v>
       </c>
       <c r="G108" s="2" t="s">
@@ -8137,7 +8150,7 @@
       <c r="E109" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="31">
+      <c r="F109" s="29">
         <v>44790</v>
       </c>
       <c r="G109" t="s">
@@ -8166,7 +8179,7 @@
       <c r="E110" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="33">
+      <c r="F110" s="31">
         <v>44811</v>
       </c>
       <c r="G110" s="3" t="s">
@@ -8200,7 +8213,7 @@
       <c r="E111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="33">
+      <c r="F111" s="31">
         <v>44811</v>
       </c>
       <c r="G111" s="3" t="s">
@@ -8234,7 +8247,7 @@
       <c r="E112" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="33">
+      <c r="F112" s="31">
         <v>44811</v>
       </c>
       <c r="G112" s="3" t="s">
@@ -8268,7 +8281,7 @@
       <c r="E113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="34">
+      <c r="F113" s="32">
         <v>44811</v>
       </c>
       <c r="G113" s="2" t="s">
@@ -8302,7 +8315,7 @@
       <c r="E114" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="31">
+      <c r="F114" s="29">
         <v>44834</v>
       </c>
       <c r="G114" t="s">
@@ -8331,7 +8344,7 @@
       <c r="E115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="34">
+      <c r="F115" s="32">
         <v>44834</v>
       </c>
       <c r="G115" s="2" t="s">
@@ -8365,7 +8378,7 @@
       <c r="E116" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="31">
+      <c r="F116" s="29">
         <v>44834</v>
       </c>
       <c r="G116" t="s">
@@ -8394,7 +8407,7 @@
       <c r="E117" t="s">
         <v>31</v>
       </c>
-      <c r="F117" s="31">
+      <c r="F117" s="29">
         <v>44834</v>
       </c>
       <c r="G117" t="s">
@@ -8423,7 +8436,7 @@
       <c r="E118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="34">
+      <c r="F118" s="32">
         <v>44854</v>
       </c>
       <c r="G118" s="2" t="s">
@@ -8457,7 +8470,7 @@
       <c r="E119" t="s">
         <v>197</v>
       </c>
-      <c r="F119" s="31">
+      <c r="F119" s="29">
         <v>44854</v>
       </c>
       <c r="G119" t="s">
@@ -8486,7 +8499,7 @@
       <c r="E120" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F120" s="33">
+      <c r="F120" s="31">
         <v>44854</v>
       </c>
       <c r="G120" s="3" t="s">
@@ -8520,7 +8533,7 @@
       <c r="E121" t="s">
         <v>194</v>
       </c>
-      <c r="F121" s="31">
+      <c r="F121" s="29">
         <v>44854</v>
       </c>
       <c r="G121" t="s">
@@ -8549,7 +8562,7 @@
       <c r="E122" t="s">
         <v>31</v>
       </c>
-      <c r="F122" s="31">
+      <c r="F122" s="29">
         <v>44854</v>
       </c>
       <c r="G122" t="s">
@@ -8581,7 +8594,7 @@
       <c r="E123" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="31">
+      <c r="F123" s="29">
         <v>44358</v>
       </c>
       <c r="G123" t="s">
@@ -8610,7 +8623,7 @@
       <c r="E124" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="31">
+      <c r="F124" s="29">
         <v>44358</v>
       </c>
       <c r="G124" t="s">
@@ -8639,7 +8652,7 @@
       <c r="E125" t="s">
         <v>31</v>
       </c>
-      <c r="F125" s="31">
+      <c r="F125" s="29">
         <v>44358</v>
       </c>
       <c r="G125" t="s">
@@ -8668,7 +8681,7 @@
       <c r="E126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F126" s="34">
+      <c r="F126" s="32">
         <v>44770</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -8702,7 +8715,7 @@
       <c r="E127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F127" s="34">
+      <c r="F127" s="32">
         <v>44770</v>
       </c>
       <c r="G127" s="2" t="s">
@@ -8736,7 +8749,7 @@
       <c r="E128" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F128" s="34">
+      <c r="F128" s="32">
         <v>44770</v>
       </c>
       <c r="G128" s="2" t="s">
@@ -8770,7 +8783,7 @@
       <c r="E129" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="31">
+      <c r="F129" s="29">
         <v>44397</v>
       </c>
       <c r="G129" t="s">
@@ -8799,7 +8812,7 @@
       <c r="E130" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="31">
+      <c r="F130" s="29">
         <v>44397</v>
       </c>
       <c r="G130" t="s">
@@ -8828,7 +8841,7 @@
       <c r="E131" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="31">
+      <c r="F131" s="29">
         <v>44425</v>
       </c>
       <c r="G131" t="s">
@@ -8857,7 +8870,7 @@
       <c r="E132" t="s">
         <v>27</v>
       </c>
-      <c r="F132" s="31">
+      <c r="F132" s="29">
         <v>44425</v>
       </c>
       <c r="G132" t="s">
@@ -8886,7 +8899,7 @@
       <c r="E133" t="s">
         <v>31</v>
       </c>
-      <c r="F133" s="31">
+      <c r="F133" s="29">
         <v>44425</v>
       </c>
       <c r="G133" t="s">
@@ -8915,7 +8928,7 @@
       <c r="E134" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="31">
+      <c r="F134" s="29">
         <v>44453</v>
       </c>
       <c r="G134" t="s">
@@ -8944,7 +8957,7 @@
       <c r="E135" t="s">
         <v>27</v>
       </c>
-      <c r="F135" s="31">
+      <c r="F135" s="29">
         <v>44453</v>
       </c>
       <c r="G135" t="s">
@@ -8973,7 +8986,7 @@
       <c r="E136" t="s">
         <v>31</v>
       </c>
-      <c r="F136" s="31">
+      <c r="F136" s="29">
         <v>44453</v>
       </c>
       <c r="G136" t="s">
@@ -9002,7 +9015,7 @@
       <c r="E137" t="s">
         <v>13</v>
       </c>
-      <c r="F137" s="31">
+      <c r="F137" s="29">
         <v>44488</v>
       </c>
       <c r="G137" t="s">
@@ -9031,7 +9044,7 @@
       <c r="E138" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="31">
+      <c r="F138" s="29">
         <v>44488</v>
       </c>
       <c r="G138" t="s">
@@ -9060,7 +9073,7 @@
       <c r="E139" t="s">
         <v>31</v>
       </c>
-      <c r="F139" s="31">
+      <c r="F139" s="29">
         <v>44488</v>
       </c>
       <c r="G139" t="s">
@@ -9089,7 +9102,7 @@
       <c r="E140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F140" s="34">
+      <c r="F140" s="32">
         <v>44509</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -9123,7 +9136,7 @@
       <c r="E141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F141" s="34">
+      <c r="F141" s="32">
         <v>44509</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -9157,7 +9170,7 @@
       <c r="E142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F142" s="34">
+      <c r="F142" s="32">
         <v>44509</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -9191,7 +9204,7 @@
       <c r="E143" t="s">
         <v>13</v>
       </c>
-      <c r="F143" s="31">
+      <c r="F143" s="29">
         <v>44363</v>
       </c>
       <c r="G143" t="s">
@@ -9223,7 +9236,7 @@
       <c r="E144" t="s">
         <v>27</v>
       </c>
-      <c r="F144" s="31">
+      <c r="F144" s="29">
         <v>44363</v>
       </c>
       <c r="G144" t="s">
@@ -9255,7 +9268,7 @@
       <c r="E145" t="s">
         <v>31</v>
       </c>
-      <c r="F145" s="31">
+      <c r="F145" s="29">
         <v>44363</v>
       </c>
       <c r="G145" t="s">
@@ -9287,7 +9300,7 @@
       <c r="E146" t="s">
         <v>13</v>
       </c>
-      <c r="F146" s="31">
+      <c r="F146" s="29">
         <v>44404</v>
       </c>
       <c r="G146" t="s">
@@ -9319,7 +9332,7 @@
       <c r="E147" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="31">
+      <c r="F147" s="29">
         <v>44404</v>
       </c>
       <c r="G147" t="s">
@@ -9351,7 +9364,7 @@
       <c r="E148" t="s">
         <v>31</v>
       </c>
-      <c r="F148" s="31">
+      <c r="F148" s="29">
         <v>44404</v>
       </c>
       <c r="G148" t="s">
@@ -9383,7 +9396,7 @@
       <c r="E149" t="s">
         <v>13</v>
       </c>
-      <c r="F149" s="31">
+      <c r="F149" s="29">
         <v>44418</v>
       </c>
       <c r="G149" t="s">
@@ -9415,7 +9428,7 @@
       <c r="E150" t="s">
         <v>27</v>
       </c>
-      <c r="F150" s="31">
+      <c r="F150" s="29">
         <v>44418</v>
       </c>
       <c r="G150" t="s">
@@ -9447,7 +9460,7 @@
       <c r="E151" t="s">
         <v>13</v>
       </c>
-      <c r="F151" s="31">
+      <c r="F151" s="29">
         <v>44364</v>
       </c>
       <c r="G151" t="s">
@@ -9476,7 +9489,7 @@
       <c r="E152" t="s">
         <v>27</v>
       </c>
-      <c r="F152" s="31">
+      <c r="F152" s="29">
         <v>44364</v>
       </c>
       <c r="G152" t="s">
@@ -9505,7 +9518,7 @@
       <c r="E153" t="s">
         <v>81</v>
       </c>
-      <c r="F153" s="31">
+      <c r="F153" s="29">
         <v>44364</v>
       </c>
       <c r="G153" t="s">
@@ -9534,7 +9547,7 @@
       <c r="E154" t="s">
         <v>31</v>
       </c>
-      <c r="F154" s="31">
+      <c r="F154" s="29">
         <v>44364</v>
       </c>
       <c r="G154" t="s">
@@ -9563,7 +9576,7 @@
       <c r="E155" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F155" s="33">
+      <c r="F155" s="31">
         <v>44705</v>
       </c>
       <c r="G155" s="3" t="s">
@@ -9597,7 +9610,7 @@
       <c r="E156" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F156" s="33">
+      <c r="F156" s="31">
         <v>44705</v>
       </c>
       <c r="G156" s="3" t="s">
@@ -9631,7 +9644,7 @@
       <c r="E157" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F157" s="33">
+      <c r="F157" s="31">
         <v>44705</v>
       </c>
       <c r="G157" s="3" t="s">
@@ -9665,7 +9678,7 @@
       <c r="E158" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="31">
+      <c r="F158" s="29">
         <v>44733</v>
       </c>
       <c r="G158" t="s">
@@ -9694,7 +9707,7 @@
       <c r="E159" t="s">
         <v>27</v>
       </c>
-      <c r="F159" s="31">
+      <c r="F159" s="29">
         <v>44733</v>
       </c>
       <c r="G159" t="s">
@@ -9723,7 +9736,7 @@
       <c r="E160" t="s">
         <v>31</v>
       </c>
-      <c r="F160" s="31">
+      <c r="F160" s="29">
         <v>44733</v>
       </c>
       <c r="G160" t="s">
@@ -9752,7 +9765,7 @@
       <c r="E161" t="s">
         <v>13</v>
       </c>
-      <c r="F161" s="31">
+      <c r="F161" s="29">
         <v>44754</v>
       </c>
       <c r="G161" t="s">
@@ -9784,7 +9797,7 @@
       <c r="E162" t="s">
         <v>27</v>
       </c>
-      <c r="F162" s="31">
+      <c r="F162" s="29">
         <v>44754</v>
       </c>
       <c r="G162" t="s">
@@ -9816,7 +9829,7 @@
       <c r="E163" t="s">
         <v>31</v>
       </c>
-      <c r="F163" s="31">
+      <c r="F163" s="29">
         <v>44754</v>
       </c>
       <c r="G163" t="s">
@@ -9886,7 +9899,7 @@
       <c r="E164" t="s">
         <v>13</v>
       </c>
-      <c r="F164" s="31">
+      <c r="F164" s="29">
         <v>44770</v>
       </c>
       <c r="G164" t="s">
@@ -9915,7 +9928,7 @@
       <c r="E165" t="s">
         <v>27</v>
       </c>
-      <c r="F165" s="31">
+      <c r="F165" s="29">
         <v>44770</v>
       </c>
       <c r="G165" t="s">
@@ -9944,7 +9957,7 @@
       <c r="E166" t="s">
         <v>31</v>
       </c>
-      <c r="F166" s="31">
+      <c r="F166" s="29">
         <v>44770</v>
       </c>
       <c r="G166" t="s">
@@ -9973,7 +9986,7 @@
       <c r="E167" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="31">
+      <c r="F167" s="29">
         <v>44785</v>
       </c>
       <c r="G167" t="s">
@@ -10002,7 +10015,7 @@
       <c r="E168" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="31">
+      <c r="F168" s="29">
         <v>44785</v>
       </c>
       <c r="G168" t="s">
@@ -10031,7 +10044,7 @@
       <c r="E169" t="s">
         <v>31</v>
       </c>
-      <c r="F169" s="31">
+      <c r="F169" s="29">
         <v>44785</v>
       </c>
       <c r="G169" t="s">
@@ -10099,7 +10112,7 @@
       <c r="E170" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F170" s="34">
+      <c r="F170" s="32">
         <v>44785</v>
       </c>
       <c r="G170" s="2" t="s">
@@ -10133,7 +10146,7 @@
       <c r="E171" t="s">
         <v>13</v>
       </c>
-      <c r="F171" s="31">
+      <c r="F171" s="29">
         <v>44792</v>
       </c>
       <c r="G171" t="s">
@@ -10165,7 +10178,7 @@
       <c r="E172" t="s">
         <v>27</v>
       </c>
-      <c r="F172" s="31">
+      <c r="F172" s="29">
         <v>44792</v>
       </c>
       <c r="G172" t="s">
@@ -10235,7 +10248,7 @@
       <c r="E173" t="s">
         <v>31</v>
       </c>
-      <c r="F173" s="31">
+      <c r="F173" s="29">
         <v>44792</v>
       </c>
       <c r="G173" t="s">
@@ -10267,7 +10280,7 @@
       <c r="E174" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F174" s="33">
+      <c r="F174" s="31">
         <v>44804</v>
       </c>
       <c r="G174" s="3" t="s">
@@ -10301,7 +10314,7 @@
       <c r="E175" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F175" s="33">
+      <c r="F175" s="31">
         <v>44804</v>
       </c>
       <c r="G175" s="3" t="s">
@@ -10335,7 +10348,7 @@
       <c r="E176" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F176" s="33">
+      <c r="F176" s="31">
         <v>44804</v>
       </c>
       <c r="G176" s="3" t="s">
@@ -10369,7 +10382,7 @@
       <c r="E177" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F177" s="34">
+      <c r="F177" s="32">
         <v>44804</v>
       </c>
       <c r="G177" s="2" t="s">
@@ -10437,7 +10450,7 @@
       <c r="E178" t="s">
         <v>13</v>
       </c>
-      <c r="F178" s="31">
+      <c r="F178" s="29">
         <v>44816</v>
       </c>
       <c r="G178" t="s">
@@ -10505,7 +10518,7 @@
       <c r="E179" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F179" s="34">
+      <c r="F179" s="32">
         <v>44816</v>
       </c>
       <c r="G179" s="2" t="s">
@@ -10539,7 +10552,7 @@
       <c r="E180" t="s">
         <v>27</v>
       </c>
-      <c r="F180" s="31">
+      <c r="F180" s="29">
         <v>44816</v>
       </c>
       <c r="G180" t="s">
@@ -10568,7 +10581,7 @@
       <c r="E181" t="s">
         <v>31</v>
       </c>
-      <c r="F181" s="31">
+      <c r="F181" s="29">
         <v>44816</v>
       </c>
       <c r="G181" t="s">
@@ -10597,7 +10610,7 @@
       <c r="E182" t="s">
         <v>13</v>
       </c>
-      <c r="F182" s="31">
+      <c r="F182" s="29">
         <v>44376</v>
       </c>
       <c r="G182" t="s">
@@ -10626,7 +10639,7 @@
       <c r="E183" t="s">
         <v>27</v>
       </c>
-      <c r="F183" s="31">
+      <c r="F183" s="29">
         <v>44376</v>
       </c>
       <c r="G183" t="s">
@@ -10655,7 +10668,7 @@
       <c r="E184" t="s">
         <v>31</v>
       </c>
-      <c r="F184" s="31">
+      <c r="F184" s="29">
         <v>44376</v>
       </c>
       <c r="G184" t="s">
@@ -10684,7 +10697,7 @@
       <c r="E185" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F185" s="33">
+      <c r="F185" s="31">
         <v>44435</v>
       </c>
       <c r="G185" s="3" t="s">
@@ -10718,7 +10731,7 @@
       <c r="E186" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F186" s="33">
+      <c r="F186" s="31">
         <v>44435</v>
       </c>
       <c r="G186" s="3" t="s">
@@ -10752,7 +10765,7 @@
       <c r="E187" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F187" s="33">
+      <c r="F187" s="31">
         <v>44435</v>
       </c>
       <c r="G187" s="3" t="s">
@@ -10786,7 +10799,7 @@
       <c r="E188" t="s">
         <v>13</v>
       </c>
-      <c r="F188" s="31">
+      <c r="F188" s="29">
         <v>44349</v>
       </c>
       <c r="G188" t="s">
@@ -10856,7 +10869,7 @@
       <c r="E189" t="s">
         <v>27</v>
       </c>
-      <c r="F189" s="31">
+      <c r="F189" s="29">
         <v>44349</v>
       </c>
       <c r="G189" t="s">
@@ -10926,7 +10939,7 @@
       <c r="E190" t="s">
         <v>31</v>
       </c>
-      <c r="F190" s="31">
+      <c r="F190" s="29">
         <v>44349</v>
       </c>
       <c r="G190" t="s">
@@ -10958,7 +10971,7 @@
       <c r="E191" t="s">
         <v>70</v>
       </c>
-      <c r="F191" s="31">
+      <c r="F191" s="29">
         <v>44349</v>
       </c>
       <c r="G191" t="s">
@@ -10987,7 +11000,7 @@
       <c r="E192" t="s">
         <v>13</v>
       </c>
-      <c r="F192" s="31">
+      <c r="F192" s="29">
         <v>44384</v>
       </c>
       <c r="G192" t="s">
@@ -11019,7 +11032,7 @@
       <c r="E193" t="s">
         <v>27</v>
       </c>
-      <c r="F193" s="31">
+      <c r="F193" s="29">
         <v>44384</v>
       </c>
       <c r="G193" t="s">
@@ -11087,7 +11100,7 @@
       <c r="E194" t="s">
         <v>31</v>
       </c>
-      <c r="F194" s="31">
+      <c r="F194" s="29">
         <v>44384</v>
       </c>
       <c r="G194" t="s">
@@ -11116,7 +11129,7 @@
       <c r="E195" t="s">
         <v>13</v>
       </c>
-      <c r="F195" s="31">
+      <c r="F195" s="29">
         <v>44442</v>
       </c>
       <c r="G195" t="s">
@@ -11184,7 +11197,7 @@
       <c r="E196" t="s">
         <v>27</v>
       </c>
-      <c r="F196" s="31">
+      <c r="F196" s="29">
         <v>44442</v>
       </c>
       <c r="G196" t="s">
@@ -11213,7 +11226,7 @@
       <c r="E197" t="s">
         <v>31</v>
       </c>
-      <c r="F197" s="31">
+      <c r="F197" s="29">
         <v>44442</v>
       </c>
       <c r="G197" t="s">
@@ -11242,7 +11255,7 @@
       <c r="E198" t="s">
         <v>13</v>
       </c>
-      <c r="F198" s="31">
+      <c r="F198" s="29">
         <v>44735</v>
       </c>
       <c r="G198" t="s">
@@ -11310,7 +11323,7 @@
       <c r="E199" t="s">
         <v>27</v>
       </c>
-      <c r="F199" s="31">
+      <c r="F199" s="29">
         <v>44735</v>
       </c>
       <c r="G199" t="s">
@@ -11378,7 +11391,7 @@
       <c r="E200" t="s">
         <v>31</v>
       </c>
-      <c r="F200" s="31">
+      <c r="F200" s="29">
         <v>44735</v>
       </c>
       <c r="G200" t="s">
@@ -11446,7 +11459,7 @@
       <c r="E201" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F201" s="34">
+      <c r="F201" s="32">
         <v>44743</v>
       </c>
       <c r="G201" s="2" t="s">
@@ -11514,7 +11527,7 @@
       <c r="E202" t="s">
         <v>13</v>
       </c>
-      <c r="F202" s="31">
+      <c r="F202" s="29">
         <v>44768</v>
       </c>
       <c r="G202" t="s">
@@ -11543,7 +11556,7 @@
       <c r="E203" t="s">
         <v>27</v>
       </c>
-      <c r="F203" s="31">
+      <c r="F203" s="29">
         <v>44768</v>
       </c>
       <c r="G203" t="s">
@@ -11572,7 +11585,7 @@
       <c r="E204" t="s">
         <v>31</v>
       </c>
-      <c r="F204" s="31">
+      <c r="F204" s="29">
         <v>44768</v>
       </c>
       <c r="G204" t="s">
@@ -11640,7 +11653,7 @@
       <c r="E205" t="s">
         <v>13</v>
       </c>
-      <c r="F205" s="31">
+      <c r="F205" s="29">
         <v>44790</v>
       </c>
       <c r="G205" t="s">
@@ -11669,7 +11682,7 @@
       <c r="E206" t="s">
         <v>27</v>
       </c>
-      <c r="F206" s="31">
+      <c r="F206" s="29">
         <v>44790</v>
       </c>
       <c r="G206" t="s">
@@ -11698,7 +11711,7 @@
       <c r="E207" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F207" s="34">
+      <c r="F207" s="32">
         <v>44790</v>
       </c>
       <c r="G207" s="2" t="s">
@@ -11732,7 +11745,7 @@
       <c r="E208" t="s">
         <v>31</v>
       </c>
-      <c r="F208" s="31">
+      <c r="F208" s="29">
         <v>44790</v>
       </c>
       <c r="G208" t="s">
@@ -11800,7 +11813,7 @@
       <c r="E209" t="s">
         <v>13</v>
       </c>
-      <c r="F209" s="31">
+      <c r="F209" s="29">
         <v>44811</v>
       </c>
       <c r="G209" t="s">
@@ -11829,7 +11842,7 @@
       <c r="E210" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F210" s="34">
+      <c r="F210" s="32">
         <v>44811</v>
       </c>
       <c r="G210" s="2" t="s">
@@ -11897,7 +11910,7 @@
       <c r="E211" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="31">
+      <c r="F211" s="29">
         <v>44811</v>
       </c>
       <c r="G211" t="s">
@@ -11926,7 +11939,7 @@
       <c r="E212" t="s">
         <v>31</v>
       </c>
-      <c r="F212" s="31">
+      <c r="F212" s="29">
         <v>44811</v>
       </c>
       <c r="G212" t="s">
@@ -11955,7 +11968,7 @@
       <c r="E213" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F213" s="34">
+      <c r="F213" s="32">
         <v>44846</v>
       </c>
       <c r="G213" s="2" t="s">
@@ -11989,7 +12002,7 @@
       <c r="E214" t="s">
         <v>13</v>
       </c>
-      <c r="F214" s="31">
+      <c r="F214" s="29">
         <v>44851</v>
       </c>
       <c r="G214" t="s">
@@ -12057,7 +12070,7 @@
       <c r="E215" t="s">
         <v>27</v>
       </c>
-      <c r="F215" s="31">
+      <c r="F215" s="29">
         <v>44851</v>
       </c>
       <c r="G215" t="s">
@@ -12125,7 +12138,7 @@
       <c r="E216" t="s">
         <v>31</v>
       </c>
-      <c r="F216" s="31">
+      <c r="F216" s="29">
         <v>44851</v>
       </c>
       <c r="G216" t="s">
@@ -12193,8 +12206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D0A122-5582-45A6-9A2A-BAB8F060E116}">
   <dimension ref="A1:M1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:A138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12276,8 +12289,8 @@
       <c r="H2" s="13">
         <v>20210614</v>
       </c>
-      <c r="I2" s="28">
-        <f>DATE(E2,F2,G2)</f>
+      <c r="I2" s="26">
+        <f t="shared" ref="I2:I65" si="0">DATE(E2,F2,G2)</f>
         <v>44361</v>
       </c>
       <c r="J2" s="13"/>
@@ -12310,8 +12323,8 @@
       <c r="H3" s="13">
         <v>20210614</v>
       </c>
-      <c r="I3" s="28">
-        <f>DATE(E3,F3,G3)</f>
+      <c r="I3" s="26">
+        <f t="shared" si="0"/>
         <v>44361</v>
       </c>
       <c r="J3" s="13"/>
@@ -12344,8 +12357,8 @@
       <c r="H4" s="13">
         <v>20210614</v>
       </c>
-      <c r="I4" s="28">
-        <f>DATE(E4,F4,G4)</f>
+      <c r="I4" s="26">
+        <f t="shared" si="0"/>
         <v>44361</v>
       </c>
       <c r="J4" s="13"/>
@@ -12378,8 +12391,8 @@
       <c r="H5" s="14">
         <v>20210614</v>
       </c>
-      <c r="I5" s="29">
-        <f>DATE(E5,F5,G5)</f>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
         <v>44361</v>
       </c>
       <c r="J5" s="14"/>
@@ -12412,8 +12425,8 @@
       <c r="H6" s="14">
         <v>20210720</v>
       </c>
-      <c r="I6" s="29">
-        <f>DATE(E6,F6,G6)</f>
+      <c r="I6" s="27">
+        <f t="shared" si="0"/>
         <v>44397</v>
       </c>
       <c r="J6" s="14"/>
@@ -12446,8 +12459,8 @@
       <c r="H7" s="14">
         <v>20210720</v>
       </c>
-      <c r="I7" s="29">
-        <f>DATE(E7,F7,G7)</f>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
         <v>44397</v>
       </c>
       <c r="J7" s="14"/>
@@ -12480,8 +12493,8 @@
       <c r="H8" s="14">
         <v>20210720</v>
       </c>
-      <c r="I8" s="29">
-        <f>DATE(E8,F8,G8)</f>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
         <v>44397</v>
       </c>
       <c r="J8" s="14"/>
@@ -12514,8 +12527,8 @@
       <c r="H9" s="14">
         <v>20210824</v>
       </c>
-      <c r="I9" s="29">
-        <f>DATE(E9,F9,G9)</f>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
         <v>44432</v>
       </c>
       <c r="J9" s="14"/>
@@ -12548,8 +12561,8 @@
       <c r="H10" s="14">
         <v>20210824</v>
       </c>
-      <c r="I10" s="29">
-        <f>DATE(E10,F10,G10)</f>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
         <v>44432</v>
       </c>
       <c r="J10" s="14"/>
@@ -12582,8 +12595,8 @@
       <c r="H11" s="13">
         <v>20210824</v>
       </c>
-      <c r="I11" s="28">
-        <f>DATE(E11,F11,G11)</f>
+      <c r="I11" s="26">
+        <f t="shared" si="0"/>
         <v>44432</v>
       </c>
       <c r="J11" s="13"/>
@@ -12616,8 +12629,8 @@
       <c r="H12" s="13">
         <v>20220603</v>
       </c>
-      <c r="I12" s="28">
-        <f>DATE(E12,F12,G12)</f>
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
         <v>44715</v>
       </c>
       <c r="J12" s="13"/>
@@ -12650,8 +12663,8 @@
       <c r="H13" s="13">
         <v>20220603</v>
       </c>
-      <c r="I13" s="28">
-        <f>DATE(E13,F13,G13)</f>
+      <c r="I13" s="26">
+        <f t="shared" si="0"/>
         <v>44715</v>
       </c>
       <c r="J13" s="13"/>
@@ -12684,8 +12697,8 @@
       <c r="H14" s="13">
         <v>20220603</v>
       </c>
-      <c r="I14" s="28">
-        <f>DATE(E14,F14,G14)</f>
+      <c r="I14" s="26">
+        <f t="shared" si="0"/>
         <v>44715</v>
       </c>
       <c r="J14" s="13"/>
@@ -12718,8 +12731,8 @@
       <c r="H15" s="13">
         <v>20220621</v>
       </c>
-      <c r="I15" s="28">
-        <f>DATE(E15,F15,G15)</f>
+      <c r="I15" s="26">
+        <f t="shared" si="0"/>
         <v>44733</v>
       </c>
       <c r="J15" s="13"/>
@@ -12752,8 +12765,8 @@
       <c r="H16" s="13">
         <v>20220621</v>
       </c>
-      <c r="I16" s="28">
-        <f>DATE(E16,F16,G16)</f>
+      <c r="I16" s="26">
+        <f t="shared" si="0"/>
         <v>44733</v>
       </c>
       <c r="J16" s="13"/>
@@ -12786,8 +12799,8 @@
       <c r="H17" s="13">
         <v>20220621</v>
       </c>
-      <c r="I17" s="28">
-        <f>DATE(E17,F17,G17)</f>
+      <c r="I17" s="26">
+        <f t="shared" si="0"/>
         <v>44733</v>
       </c>
       <c r="J17" s="13"/>
@@ -12820,8 +12833,8 @@
       <c r="H18" s="17">
         <v>20220715</v>
       </c>
-      <c r="I18" s="30">
-        <f>DATE(E18,F18,G18)</f>
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
         <v>44757</v>
       </c>
       <c r="J18" s="17"/>
@@ -12857,8 +12870,8 @@
       <c r="H19" s="17">
         <v>20220715</v>
       </c>
-      <c r="I19" s="30">
-        <f>DATE(E19,F19,G19)</f>
+      <c r="I19" s="28">
+        <f t="shared" si="0"/>
         <v>44757</v>
       </c>
       <c r="J19" s="17"/>
@@ -12894,8 +12907,8 @@
       <c r="H20" s="17">
         <v>20220715</v>
       </c>
-      <c r="I20" s="30">
-        <f>DATE(E20,F20,G20)</f>
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
         <v>44757</v>
       </c>
       <c r="J20" s="17"/>
@@ -12931,8 +12944,8 @@
       <c r="H21" s="13">
         <v>20220727</v>
       </c>
-      <c r="I21" s="28">
-        <f>DATE(E21,F21,G21)</f>
+      <c r="I21" s="26">
+        <f t="shared" si="0"/>
         <v>44769</v>
       </c>
       <c r="J21" s="13"/>
@@ -12965,8 +12978,8 @@
       <c r="H22" s="13">
         <v>20220727</v>
       </c>
-      <c r="I22" s="28">
-        <f>DATE(E22,F22,G22)</f>
+      <c r="I22" s="26">
+        <f t="shared" si="0"/>
         <v>44769</v>
       </c>
       <c r="J22" s="13"/>
@@ -12999,8 +13012,8 @@
       <c r="H23" s="13">
         <v>20220727</v>
       </c>
-      <c r="I23" s="28">
-        <f>DATE(E23,F23,G23)</f>
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
         <v>44769</v>
       </c>
       <c r="J23" s="13"/>
@@ -13033,8 +13046,8 @@
       <c r="H24" s="17">
         <v>20220812</v>
       </c>
-      <c r="I24" s="30">
-        <f>DATE(E24,F24,G24)</f>
+      <c r="I24" s="28">
+        <f t="shared" si="0"/>
         <v>44785</v>
       </c>
       <c r="J24" s="17"/>
@@ -13070,8 +13083,8 @@
       <c r="H25" s="17">
         <v>20220812</v>
       </c>
-      <c r="I25" s="30">
-        <f>DATE(E25,F25,G25)</f>
+      <c r="I25" s="28">
+        <f t="shared" si="0"/>
         <v>44785</v>
       </c>
       <c r="J25" s="17"/>
@@ -13107,8 +13120,8 @@
       <c r="H26" s="17">
         <v>20220812</v>
       </c>
-      <c r="I26" s="30">
-        <f>DATE(E26,F26,G26)</f>
+      <c r="I26" s="28">
+        <f t="shared" si="0"/>
         <v>44785</v>
       </c>
       <c r="J26" s="17"/>
@@ -13144,8 +13157,8 @@
       <c r="H27" s="13">
         <v>20220812</v>
       </c>
-      <c r="I27" s="28">
-        <f>DATE(E27,F27,G27)</f>
+      <c r="I27" s="26">
+        <f t="shared" si="0"/>
         <v>44785</v>
       </c>
       <c r="J27" s="13"/>
@@ -13178,8 +13191,8 @@
       <c r="H28" s="14">
         <v>20220902</v>
       </c>
-      <c r="I28" s="29">
-        <f>DATE(E28,F28,G28)</f>
+      <c r="I28" s="27">
+        <f t="shared" si="0"/>
         <v>44806</v>
       </c>
       <c r="J28" s="14"/>
@@ -13212,8 +13225,8 @@
       <c r="H29" s="14">
         <v>20220902</v>
       </c>
-      <c r="I29" s="29">
-        <f>DATE(E29,F29,G29)</f>
+      <c r="I29" s="27">
+        <f t="shared" si="0"/>
         <v>44806</v>
       </c>
       <c r="J29" s="14"/>
@@ -13246,8 +13259,8 @@
       <c r="H30" s="13">
         <v>20220902</v>
       </c>
-      <c r="I30" s="28">
-        <f>DATE(E30,F30,G30)</f>
+      <c r="I30" s="26">
+        <f t="shared" si="0"/>
         <v>44806</v>
       </c>
       <c r="J30" s="13"/>
@@ -13280,8 +13293,8 @@
       <c r="H31" s="13">
         <v>20220902</v>
       </c>
-      <c r="I31" s="28">
-        <f>DATE(E31,F31,G31)</f>
+      <c r="I31" s="26">
+        <f t="shared" si="0"/>
         <v>44806</v>
       </c>
       <c r="J31" s="13"/>
@@ -13314,8 +13327,8 @@
       <c r="H32" s="13">
         <v>20220912</v>
       </c>
-      <c r="I32" s="28">
-        <f>DATE(E32,F32,G32)</f>
+      <c r="I32" s="26">
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="J32" s="13"/>
@@ -13348,8 +13361,8 @@
       <c r="H33" s="13">
         <v>20220912</v>
       </c>
-      <c r="I33" s="28">
-        <f>DATE(E33,F33,G33)</f>
+      <c r="I33" s="26">
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="J33" s="13"/>
@@ -13382,8 +13395,8 @@
       <c r="H34" s="13">
         <v>20220912</v>
       </c>
-      <c r="I34" s="28">
-        <f>DATE(E34,F34,G34)</f>
+      <c r="I34" s="26">
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="J34" s="13"/>
@@ -13416,8 +13429,8 @@
       <c r="H35" s="13">
         <v>20220912</v>
       </c>
-      <c r="I35" s="28">
-        <f>DATE(E35,F35,G35)</f>
+      <c r="I35" s="26">
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="J35" s="13"/>
@@ -13450,8 +13463,8 @@
       <c r="H36" s="13">
         <v>20220928</v>
       </c>
-      <c r="I36" s="28">
-        <f>DATE(E36,F36,G36)</f>
+      <c r="I36" s="26">
+        <f t="shared" si="0"/>
         <v>44832</v>
       </c>
       <c r="J36" s="13"/>
@@ -13484,8 +13497,8 @@
       <c r="H37" s="13">
         <v>20220928</v>
       </c>
-      <c r="I37" s="28">
-        <f>DATE(E37,F37,G37)</f>
+      <c r="I37" s="26">
+        <f t="shared" si="0"/>
         <v>44832</v>
       </c>
       <c r="J37" s="13"/>
@@ -13518,8 +13531,8 @@
       <c r="H38" s="13">
         <v>20220928</v>
       </c>
-      <c r="I38" s="28">
-        <f>DATE(E38,F38,G38)</f>
+      <c r="I38" s="26">
+        <f t="shared" si="0"/>
         <v>44832</v>
       </c>
       <c r="J38" s="13"/>
@@ -13552,8 +13565,8 @@
       <c r="H39" s="13">
         <v>20220928</v>
       </c>
-      <c r="I39" s="28">
-        <f>DATE(E39,F39,G39)</f>
+      <c r="I39" s="26">
+        <f t="shared" si="0"/>
         <v>44832</v>
       </c>
       <c r="J39" s="13"/>
@@ -13586,8 +13599,8 @@
       <c r="H40" s="14">
         <v>20221017</v>
       </c>
-      <c r="I40" s="29">
-        <f>DATE(E40,F40,G40)</f>
+      <c r="I40" s="27">
+        <f t="shared" si="0"/>
         <v>44851</v>
       </c>
       <c r="J40" s="14"/>
@@ -13620,8 +13633,8 @@
       <c r="H41" s="17">
         <v>20221017</v>
       </c>
-      <c r="I41" s="30">
-        <f>DATE(E41,F41,G41)</f>
+      <c r="I41" s="28">
+        <f t="shared" si="0"/>
         <v>44851</v>
       </c>
       <c r="J41" s="17"/>
@@ -13657,8 +13670,8 @@
       <c r="H42" s="17">
         <v>20221017</v>
       </c>
-      <c r="I42" s="30">
-        <f>DATE(E42,F42,G42)</f>
+      <c r="I42" s="28">
+        <f t="shared" si="0"/>
         <v>44851</v>
       </c>
       <c r="J42" s="17"/>
@@ -13694,8 +13707,8 @@
       <c r="H43" s="13">
         <v>20221017</v>
       </c>
-      <c r="I43" s="28">
-        <f>DATE(E43,F43,G43)</f>
+      <c r="I43" s="26">
+        <f t="shared" si="0"/>
         <v>44851</v>
       </c>
       <c r="J43" s="13"/>
@@ -13728,8 +13741,8 @@
       <c r="H44" s="17">
         <v>20220510</v>
       </c>
-      <c r="I44" s="30">
-        <f>DATE(E44,F44,G44)</f>
+      <c r="I44" s="28">
+        <f t="shared" si="0"/>
         <v>44691</v>
       </c>
       <c r="J44" s="17"/>
@@ -13765,8 +13778,8 @@
       <c r="H45" s="17">
         <v>20220510</v>
       </c>
-      <c r="I45" s="30">
-        <f>DATE(E45,F45,G45)</f>
+      <c r="I45" s="28">
+        <f t="shared" si="0"/>
         <v>44691</v>
       </c>
       <c r="J45" s="17"/>
@@ -13802,8 +13815,8 @@
       <c r="H46" s="17">
         <v>20220510</v>
       </c>
-      <c r="I46" s="30">
-        <f>DATE(E46,F46,G46)</f>
+      <c r="I46" s="28">
+        <f t="shared" si="0"/>
         <v>44691</v>
       </c>
       <c r="J46" s="17"/>
@@ -13839,8 +13852,8 @@
       <c r="H47" s="13">
         <v>20220615</v>
       </c>
-      <c r="I47" s="28">
-        <f>DATE(E47,F47,G47)</f>
+      <c r="I47" s="26">
+        <f t="shared" si="0"/>
         <v>44727</v>
       </c>
       <c r="J47" s="13"/>
@@ -13873,8 +13886,8 @@
       <c r="H48" s="14">
         <v>20220615</v>
       </c>
-      <c r="I48" s="29">
-        <f>DATE(E48,F48,G48)</f>
+      <c r="I48" s="27">
+        <f t="shared" si="0"/>
         <v>44727</v>
       </c>
       <c r="J48" s="14"/>
@@ -13907,8 +13920,8 @@
       <c r="H49" s="14">
         <v>20220615</v>
       </c>
-      <c r="I49" s="29">
-        <f>DATE(E49,F49,G49)</f>
+      <c r="I49" s="27">
+        <f t="shared" si="0"/>
         <v>44727</v>
       </c>
       <c r="J49" s="14"/>
@@ -13941,8 +13954,8 @@
       <c r="H50" s="13">
         <v>20220712</v>
       </c>
-      <c r="I50" s="28">
-        <f>DATE(E50,F50,G50)</f>
+      <c r="I50" s="26">
+        <f t="shared" si="0"/>
         <v>44754</v>
       </c>
       <c r="J50" s="13"/>
@@ -13975,8 +13988,8 @@
       <c r="H51" s="14">
         <v>20220712</v>
       </c>
-      <c r="I51" s="29">
-        <f>DATE(E51,F51,G51)</f>
+      <c r="I51" s="27">
+        <f t="shared" si="0"/>
         <v>44754</v>
       </c>
       <c r="J51" s="14"/>
@@ -14009,8 +14022,8 @@
       <c r="H52" s="13">
         <v>20220712</v>
       </c>
-      <c r="I52" s="28">
-        <f>DATE(E52,F52,G52)</f>
+      <c r="I52" s="26">
+        <f t="shared" si="0"/>
         <v>44754</v>
       </c>
       <c r="J52" s="13"/>
@@ -14043,8 +14056,8 @@
       <c r="H53" s="14">
         <v>20220829</v>
       </c>
-      <c r="I53" s="29">
-        <f>DATE(E53,F53,G53)</f>
+      <c r="I53" s="27">
+        <f t="shared" si="0"/>
         <v>44802</v>
       </c>
       <c r="J53" s="14"/>
@@ -14077,8 +14090,8 @@
       <c r="H54" s="14">
         <v>20220829</v>
       </c>
-      <c r="I54" s="29">
-        <f>DATE(E54,F54,G54)</f>
+      <c r="I54" s="27">
+        <f t="shared" si="0"/>
         <v>44802</v>
       </c>
       <c r="J54" s="14"/>
@@ -14111,8 +14124,8 @@
       <c r="H55" s="13">
         <v>20220829</v>
       </c>
-      <c r="I55" s="28">
-        <f>DATE(E55,F55,G55)</f>
+      <c r="I55" s="26">
+        <f t="shared" si="0"/>
         <v>44802</v>
       </c>
       <c r="J55" s="13"/>
@@ -14145,8 +14158,8 @@
       <c r="H56" s="14">
         <v>20220927</v>
       </c>
-      <c r="I56" s="29">
-        <f>DATE(E56,F56,G56)</f>
+      <c r="I56" s="27">
+        <f t="shared" si="0"/>
         <v>44831</v>
       </c>
       <c r="J56" s="14"/>
@@ -14179,8 +14192,8 @@
       <c r="H57" s="13">
         <v>20220927</v>
       </c>
-      <c r="I57" s="28">
-        <f>DATE(E57,F57,G57)</f>
+      <c r="I57" s="26">
+        <f t="shared" si="0"/>
         <v>44831</v>
       </c>
       <c r="J57" s="13"/>
@@ -14213,8 +14226,8 @@
       <c r="H58" s="14">
         <v>20220927</v>
       </c>
-      <c r="I58" s="29">
-        <f>DATE(E58,F58,G58)</f>
+      <c r="I58" s="27">
+        <f t="shared" si="0"/>
         <v>44831</v>
       </c>
       <c r="J58" s="14"/>
@@ -14247,8 +14260,8 @@
       <c r="H59" s="13">
         <v>20221011</v>
       </c>
-      <c r="I59" s="28">
-        <f>DATE(E59,F59,G59)</f>
+      <c r="I59" s="26">
+        <f t="shared" si="0"/>
         <v>44845</v>
       </c>
       <c r="J59" s="13"/>
@@ -14281,8 +14294,8 @@
       <c r="H60" s="14">
         <v>20221019</v>
       </c>
-      <c r="I60" s="29">
-        <f>DATE(E60,F60,G60)</f>
+      <c r="I60" s="27">
+        <f t="shared" si="0"/>
         <v>44853</v>
       </c>
       <c r="J60" s="14"/>
@@ -14315,8 +14328,8 @@
       <c r="H61" s="13">
         <v>20221019</v>
       </c>
-      <c r="I61" s="28">
-        <f>DATE(E61,F61,G61)</f>
+      <c r="I61" s="26">
+        <f t="shared" si="0"/>
         <v>44853</v>
       </c>
       <c r="J61" s="13"/>
@@ -14349,8 +14362,8 @@
       <c r="H62" s="13">
         <v>20221019</v>
       </c>
-      <c r="I62" s="28">
-        <f>DATE(E62,F62,G62)</f>
+      <c r="I62" s="26">
+        <f t="shared" si="0"/>
         <v>44853</v>
       </c>
       <c r="J62" s="13"/>
@@ -14383,8 +14396,8 @@
       <c r="H63" s="13">
         <v>20210630</v>
       </c>
-      <c r="I63" s="28">
-        <f>DATE(E63,F63,G63)</f>
+      <c r="I63" s="26">
+        <f t="shared" si="0"/>
         <v>44377</v>
       </c>
       <c r="J63" s="13"/>
@@ -14417,8 +14430,8 @@
       <c r="H64" s="13">
         <v>20210630</v>
       </c>
-      <c r="I64" s="28">
-        <f>DATE(E64,F64,G64)</f>
+      <c r="I64" s="26">
+        <f t="shared" si="0"/>
         <v>44377</v>
       </c>
       <c r="J64" s="13"/>
@@ -14451,8 +14464,8 @@
       <c r="H65" s="13">
         <v>20210630</v>
       </c>
-      <c r="I65" s="28">
-        <f>DATE(E65,F65,G65)</f>
+      <c r="I65" s="26">
+        <f t="shared" si="0"/>
         <v>44377</v>
       </c>
       <c r="J65" s="13"/>
@@ -14485,8 +14498,8 @@
       <c r="H66" s="13">
         <v>20210630</v>
       </c>
-      <c r="I66" s="28">
-        <f>DATE(E66,F66,G66)</f>
+      <c r="I66" s="26">
+        <f t="shared" ref="I66:I129" si="1">DATE(E66,F66,G66)</f>
         <v>44377</v>
       </c>
       <c r="J66" s="13"/>
@@ -14519,8 +14532,8 @@
       <c r="H67" s="14">
         <v>20211001</v>
       </c>
-      <c r="I67" s="29">
-        <f>DATE(E67,F67,G67)</f>
+      <c r="I67" s="27">
+        <f t="shared" si="1"/>
         <v>44470</v>
       </c>
       <c r="J67" s="14"/>
@@ -14553,8 +14566,8 @@
       <c r="H68" s="14">
         <v>20211001</v>
       </c>
-      <c r="I68" s="29">
-        <f>DATE(E68,F68,G68)</f>
+      <c r="I68" s="27">
+        <f t="shared" si="1"/>
         <v>44470</v>
       </c>
       <c r="J68" s="14"/>
@@ -14587,8 +14600,8 @@
       <c r="H69" s="13">
         <v>20211001</v>
       </c>
-      <c r="I69" s="28">
-        <f>DATE(E69,F69,G69)</f>
+      <c r="I69" s="26">
+        <f t="shared" si="1"/>
         <v>44470</v>
       </c>
       <c r="J69" s="13"/>
@@ -14621,8 +14634,8 @@
       <c r="H70" s="13">
         <v>20210609</v>
       </c>
-      <c r="I70" s="28">
-        <f>DATE(E70,F70,G70)</f>
+      <c r="I70" s="26">
+        <f t="shared" si="1"/>
         <v>44356</v>
       </c>
       <c r="J70" s="13"/>
@@ -14655,8 +14668,8 @@
       <c r="H71" s="13">
         <v>20210609</v>
       </c>
-      <c r="I71" s="28">
-        <f>DATE(E71,F71,G71)</f>
+      <c r="I71" s="26">
+        <f t="shared" si="1"/>
         <v>44356</v>
       </c>
       <c r="J71" s="13"/>
@@ -14689,8 +14702,8 @@
       <c r="H72" s="13">
         <v>20210609</v>
       </c>
-      <c r="I72" s="28">
-        <f>DATE(E72,F72,G72)</f>
+      <c r="I72" s="26">
+        <f t="shared" si="1"/>
         <v>44356</v>
       </c>
       <c r="J72" s="13"/>
@@ -14723,8 +14736,8 @@
       <c r="H73" s="13">
         <v>20210609</v>
       </c>
-      <c r="I73" s="28">
-        <f>DATE(E73,F73,G73)</f>
+      <c r="I73" s="26">
+        <f t="shared" si="1"/>
         <v>44356</v>
       </c>
       <c r="J73" s="13"/>
@@ -14757,8 +14770,8 @@
       <c r="H74" s="13">
         <v>20210712</v>
       </c>
-      <c r="I74" s="28">
-        <f>DATE(E74,F74,G74)</f>
+      <c r="I74" s="26">
+        <f t="shared" si="1"/>
         <v>44389</v>
       </c>
       <c r="J74" s="13"/>
@@ -14791,8 +14804,8 @@
       <c r="H75" s="17">
         <v>20210712</v>
       </c>
-      <c r="I75" s="30">
-        <f>DATE(E75,F75,G75)</f>
+      <c r="I75" s="28">
+        <f t="shared" si="1"/>
         <v>44389</v>
       </c>
       <c r="J75" s="17"/>
@@ -14828,8 +14841,8 @@
       <c r="H76" s="13">
         <v>20210712</v>
       </c>
-      <c r="I76" s="28">
-        <f>DATE(E76,F76,G76)</f>
+      <c r="I76" s="26">
+        <f t="shared" si="1"/>
         <v>44389</v>
       </c>
       <c r="J76" s="13"/>
@@ -14862,8 +14875,8 @@
       <c r="H77" s="13">
         <v>20210809</v>
       </c>
-      <c r="I77" s="28">
-        <f>DATE(E77,F77,G77)</f>
+      <c r="I77" s="26">
+        <f t="shared" si="1"/>
         <v>44417</v>
       </c>
       <c r="J77" s="13"/>
@@ -14896,8 +14909,8 @@
       <c r="H78" s="13">
         <v>20210809</v>
       </c>
-      <c r="I78" s="28">
-        <f>DATE(E78,F78,G78)</f>
+      <c r="I78" s="26">
+        <f t="shared" si="1"/>
         <v>44417</v>
       </c>
       <c r="J78" s="13"/>
@@ -14905,7 +14918,7 @@
         <v>463</v>
       </c>
       <c r="M78" t="s">
-        <v>286</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -14933,8 +14946,8 @@
       <c r="H79" s="13">
         <v>20210809</v>
       </c>
-      <c r="I79" s="28">
-        <f>DATE(E79,F79,G79)</f>
+      <c r="I79" s="26">
+        <f t="shared" si="1"/>
         <v>44417</v>
       </c>
       <c r="J79" s="13"/>
@@ -14942,7 +14955,7 @@
         <v>463</v>
       </c>
       <c r="M79" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -14970,8 +14983,8 @@
       <c r="H80" s="17">
         <v>20220601</v>
       </c>
-      <c r="I80" s="30">
-        <f>DATE(E80,F80,G80)</f>
+      <c r="I80" s="28">
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="J80" s="17"/>
@@ -15007,8 +15020,8 @@
       <c r="H81" s="17">
         <v>20220601</v>
       </c>
-      <c r="I81" s="30">
-        <f>DATE(E81,F81,G81)</f>
+      <c r="I81" s="28">
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="J81" s="17"/>
@@ -15044,8 +15057,8 @@
       <c r="H82" s="17">
         <v>20220601</v>
       </c>
-      <c r="I82" s="30">
-        <f>DATE(E82,F82,G82)</f>
+      <c r="I82" s="28">
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="J82" s="17"/>
@@ -15079,8 +15092,8 @@
         <v>1</v>
       </c>
       <c r="H83" s="13"/>
-      <c r="I83" s="28">
-        <f>DATE(E83,F83,G83)</f>
+      <c r="I83" s="26">
+        <f t="shared" si="1"/>
         <v>44743</v>
       </c>
       <c r="J83" s="13"/>
@@ -15111,8 +15124,8 @@
         <v>1</v>
       </c>
       <c r="H84" s="13"/>
-      <c r="I84" s="28">
-        <f>DATE(E84,F84,G84)</f>
+      <c r="I84" s="26">
+        <f t="shared" si="1"/>
         <v>44743</v>
       </c>
       <c r="J84" s="13"/>
@@ -15143,8 +15156,8 @@
         <v>1</v>
       </c>
       <c r="H85" s="13"/>
-      <c r="I85" s="28">
-        <f>DATE(E85,F85,G85)</f>
+      <c r="I85" s="26">
+        <f t="shared" si="1"/>
         <v>44743</v>
       </c>
       <c r="J85" s="13"/>
@@ -15177,8 +15190,8 @@
       <c r="H86" s="13">
         <v>20220725</v>
       </c>
-      <c r="I86" s="28">
-        <f>DATE(E86,F86,G86)</f>
+      <c r="I86" s="26">
+        <f t="shared" si="1"/>
         <v>44767</v>
       </c>
       <c r="J86" s="13"/>
@@ -15211,8 +15224,8 @@
       <c r="H87" s="13">
         <v>20220725</v>
       </c>
-      <c r="I87" s="28">
-        <f>DATE(E87,F87,G87)</f>
+      <c r="I87" s="26">
+        <f t="shared" si="1"/>
         <v>44767</v>
       </c>
       <c r="J87" s="13"/>
@@ -15245,8 +15258,8 @@
       <c r="H88" s="13">
         <v>20220725</v>
       </c>
-      <c r="I88" s="28">
-        <f>DATE(E88,F88,G88)</f>
+      <c r="I88" s="26">
+        <f t="shared" si="1"/>
         <v>44767</v>
       </c>
       <c r="J88" s="13"/>
@@ -15279,8 +15292,8 @@
       <c r="H89" s="14">
         <v>20220815</v>
       </c>
-      <c r="I89" s="29">
-        <f>DATE(E89,F89,G89)</f>
+      <c r="I89" s="27">
+        <f t="shared" si="1"/>
         <v>44788</v>
       </c>
       <c r="J89" s="14"/>
@@ -15313,8 +15326,8 @@
       <c r="H90" s="13">
         <v>20220815</v>
       </c>
-      <c r="I90" s="28">
-        <f>DATE(E90,F90,G90)</f>
+      <c r="I90" s="26">
+        <f t="shared" si="1"/>
         <v>44788</v>
       </c>
       <c r="J90" s="13"/>
@@ -15347,8 +15360,8 @@
       <c r="H91" s="14">
         <v>20220815</v>
       </c>
-      <c r="I91" s="29">
-        <f>DATE(E91,F91,G91)</f>
+      <c r="I91" s="27">
+        <f t="shared" si="1"/>
         <v>44788</v>
       </c>
       <c r="J91" s="14"/>
@@ -15381,8 +15394,8 @@
       <c r="H92" s="14">
         <v>20220815</v>
       </c>
-      <c r="I92" s="29">
-        <f>DATE(E92,F92,G92)</f>
+      <c r="I92" s="27">
+        <f t="shared" si="1"/>
         <v>44788</v>
       </c>
       <c r="J92" s="14"/>
@@ -15415,8 +15428,8 @@
       <c r="H93" s="17">
         <v>20220831</v>
       </c>
-      <c r="I93" s="30">
-        <f>DATE(E93,F93,G93)</f>
+      <c r="I93" s="28">
+        <f t="shared" si="1"/>
         <v>44804</v>
       </c>
       <c r="J93" s="17"/>
@@ -15452,8 +15465,8 @@
       <c r="H94" s="17">
         <v>20220831</v>
       </c>
-      <c r="I94" s="30">
-        <f>DATE(E94,F94,G94)</f>
+      <c r="I94" s="28">
+        <f t="shared" si="1"/>
         <v>44804</v>
       </c>
       <c r="J94" s="17"/>
@@ -15489,8 +15502,8 @@
       <c r="H95" s="17">
         <v>20220831</v>
       </c>
-      <c r="I95" s="30">
-        <f>DATE(E95,F95,G95)</f>
+      <c r="I95" s="28">
+        <f t="shared" si="1"/>
         <v>44804</v>
       </c>
       <c r="J95" s="17"/>
@@ -15526,8 +15539,8 @@
       <c r="H96" s="14">
         <v>20220920</v>
       </c>
-      <c r="I96" s="29">
-        <f>DATE(E96,F96,G96)</f>
+      <c r="I96" s="27">
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="J96" s="14"/>
@@ -15563,8 +15576,8 @@
       <c r="H97" s="13">
         <v>20220920</v>
       </c>
-      <c r="I97" s="28">
-        <f>DATE(E97,F97,G97)</f>
+      <c r="I97" s="26">
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="J97" s="13"/>
@@ -15597,8 +15610,8 @@
       <c r="H98" s="13">
         <v>20220920</v>
       </c>
-      <c r="I98" s="28">
-        <f>DATE(E98,F98,G98)</f>
+      <c r="I98" s="26">
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="J98" s="13"/>
@@ -15634,8 +15647,8 @@
       <c r="H99" s="13">
         <v>20220920</v>
       </c>
-      <c r="I99" s="28">
-        <f>DATE(E99,F99,G99)</f>
+      <c r="I99" s="26">
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="J99" s="13"/>
@@ -15668,8 +15681,8 @@
       <c r="H100" s="13">
         <v>20220920</v>
       </c>
-      <c r="I100" s="28">
-        <f>DATE(E100,F100,G100)</f>
+      <c r="I100" s="26">
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="J100" s="13"/>
@@ -15705,8 +15718,8 @@
       <c r="H101" s="13">
         <v>20220920</v>
       </c>
-      <c r="I101" s="28">
-        <f>DATE(E101,F101,G101)</f>
+      <c r="I101" s="26">
+        <f t="shared" si="1"/>
         <v>44824</v>
       </c>
       <c r="J101" s="13"/>
@@ -15739,8 +15752,8 @@
       <c r="H102" s="14">
         <v>20221019</v>
       </c>
-      <c r="I102" s="29">
-        <f>DATE(E102,F102,G102)</f>
+      <c r="I102" s="27">
+        <f t="shared" si="1"/>
         <v>44853</v>
       </c>
       <c r="J102" s="14"/>
@@ -15773,8 +15786,8 @@
       <c r="H103" s="13">
         <v>20221019</v>
       </c>
-      <c r="I103" s="28">
-        <f>DATE(E103,F103,G103)</f>
+      <c r="I103" s="26">
+        <f t="shared" si="1"/>
         <v>44853</v>
       </c>
       <c r="J103" s="13"/>
@@ -15807,8 +15820,8 @@
       <c r="H104" s="14">
         <v>20221019</v>
       </c>
-      <c r="I104" s="29">
-        <f>DATE(E104,F104,G104)</f>
+      <c r="I104" s="27">
+        <f t="shared" si="1"/>
         <v>44853</v>
       </c>
       <c r="J104" s="14"/>
@@ -15841,8 +15854,8 @@
       <c r="H105" s="14">
         <v>20210604</v>
       </c>
-      <c r="I105" s="29">
-        <f>DATE(E105,F105,G105)</f>
+      <c r="I105" s="27">
+        <f t="shared" si="1"/>
         <v>44351</v>
       </c>
       <c r="J105" s="14" t="s">
@@ -15877,8 +15890,8 @@
       <c r="H106" s="14">
         <v>20210604</v>
       </c>
-      <c r="I106" s="29">
-        <f>DATE(E106,F106,G106)</f>
+      <c r="I106" s="27">
+        <f t="shared" si="1"/>
         <v>44351</v>
       </c>
       <c r="J106" s="14" t="s">
@@ -15913,8 +15926,8 @@
       <c r="H107" s="14">
         <v>20210604</v>
       </c>
-      <c r="I107" s="29">
-        <f>DATE(E107,F107,G107)</f>
+      <c r="I107" s="27">
+        <f t="shared" si="1"/>
         <v>44351</v>
       </c>
       <c r="J107" s="14" t="s">
@@ -15949,8 +15962,8 @@
       <c r="H108" s="13">
         <v>20210714</v>
       </c>
-      <c r="I108" s="28">
-        <f>DATE(E108,F108,G108)</f>
+      <c r="I108" s="26">
+        <f t="shared" si="1"/>
         <v>44391</v>
       </c>
       <c r="J108" s="13"/>
@@ -15986,8 +15999,8 @@
       <c r="H109" s="13">
         <v>20210714</v>
       </c>
-      <c r="I109" s="28">
-        <f>DATE(E109,F109,G109)</f>
+      <c r="I109" s="26">
+        <f t="shared" si="1"/>
         <v>44391</v>
       </c>
       <c r="J109" s="13"/>
@@ -16020,8 +16033,8 @@
       <c r="H110" s="13">
         <v>20210714</v>
       </c>
-      <c r="I110" s="28">
-        <f>DATE(E110,F110,G110)</f>
+      <c r="I110" s="26">
+        <f t="shared" si="1"/>
         <v>44391</v>
       </c>
       <c r="J110" s="13"/>
@@ -16057,8 +16070,8 @@
       <c r="H111" s="13">
         <v>20210714</v>
       </c>
-      <c r="I111" s="28">
-        <f>DATE(E111,F111,G111)</f>
+      <c r="I111" s="26">
+        <f t="shared" si="1"/>
         <v>44391</v>
       </c>
       <c r="J111" s="13"/>
@@ -16091,8 +16104,8 @@
       <c r="H112" s="13">
         <v>20210902</v>
       </c>
-      <c r="I112" s="28">
-        <f>DATE(E112,F112,G112)</f>
+      <c r="I112" s="26">
+        <f t="shared" si="1"/>
         <v>44441</v>
       </c>
       <c r="J112" s="13"/>
@@ -16125,8 +16138,8 @@
       <c r="H113" s="13">
         <v>20210902</v>
       </c>
-      <c r="I113" s="28">
-        <f>DATE(E113,F113,G113)</f>
+      <c r="I113" s="26">
+        <f t="shared" si="1"/>
         <v>44441</v>
       </c>
       <c r="J113" s="13"/>
@@ -16159,8 +16172,8 @@
       <c r="H114" s="14">
         <v>20210902</v>
       </c>
-      <c r="I114" s="29">
-        <f>DATE(E114,F114,G114)</f>
+      <c r="I114" s="27">
+        <f t="shared" si="1"/>
         <v>44441</v>
       </c>
       <c r="J114" s="14"/>
@@ -16193,8 +16206,8 @@
       <c r="H115" s="13">
         <v>20220623</v>
       </c>
-      <c r="I115" s="28">
-        <f>DATE(E115,F115,G115)</f>
+      <c r="I115" s="26">
+        <f t="shared" si="1"/>
         <v>44735</v>
       </c>
       <c r="J115" s="13"/>
@@ -16227,8 +16240,8 @@
       <c r="H116" s="13">
         <v>20220623</v>
       </c>
-      <c r="I116" s="28">
-        <f>DATE(E116,F116,G116)</f>
+      <c r="I116" s="26">
+        <f t="shared" si="1"/>
         <v>44735</v>
       </c>
       <c r="J116" s="13"/>
@@ -16261,8 +16274,8 @@
       <c r="H117" s="13">
         <v>20220623</v>
       </c>
-      <c r="I117" s="28">
-        <f>DATE(E117,F117,G117)</f>
+      <c r="I117" s="26">
+        <f t="shared" si="1"/>
         <v>44735</v>
       </c>
       <c r="J117" s="13"/>
@@ -16295,8 +16308,8 @@
       <c r="H118" s="13">
         <v>20220726</v>
       </c>
-      <c r="I118" s="28">
-        <f>DATE(E118,F118,G118)</f>
+      <c r="I118" s="26">
+        <f t="shared" si="1"/>
         <v>44768</v>
       </c>
       <c r="J118" s="13"/>
@@ -16329,8 +16342,8 @@
       <c r="H119" s="13">
         <v>20220726</v>
       </c>
-      <c r="I119" s="28">
-        <f>DATE(E119,F119,G119)</f>
+      <c r="I119" s="26">
+        <f t="shared" si="1"/>
         <v>44768</v>
       </c>
       <c r="J119" s="13"/>
@@ -16363,8 +16376,8 @@
       <c r="H120" s="13">
         <v>20220726</v>
       </c>
-      <c r="I120" s="28">
-        <f>DATE(E120,F120,G120)</f>
+      <c r="I120" s="26">
+        <f t="shared" si="1"/>
         <v>44768</v>
       </c>
       <c r="J120" s="13"/>
@@ -16397,8 +16410,8 @@
       <c r="H121" s="13">
         <v>20220726</v>
       </c>
-      <c r="I121" s="28">
-        <f>DATE(E121,F121,G121)</f>
+      <c r="I121" s="26">
+        <f t="shared" si="1"/>
         <v>44768</v>
       </c>
       <c r="J121" s="13"/>
@@ -16431,8 +16444,8 @@
       <c r="H122" s="13">
         <v>20220726</v>
       </c>
-      <c r="I122" s="28">
-        <f>DATE(E122,F122,G122)</f>
+      <c r="I122" s="26">
+        <f t="shared" si="1"/>
         <v>44768</v>
       </c>
       <c r="J122" s="13"/>
@@ -16465,8 +16478,8 @@
       <c r="H123" s="13">
         <v>20220726</v>
       </c>
-      <c r="I123" s="28">
-        <f>DATE(E123,F123,G123)</f>
+      <c r="I123" s="26">
+        <f t="shared" si="1"/>
         <v>44768</v>
       </c>
       <c r="J123" s="13"/>
@@ -16499,8 +16512,8 @@
       <c r="H124" s="13">
         <v>20220817</v>
       </c>
-      <c r="I124" s="28">
-        <f>DATE(E124,F124,G124)</f>
+      <c r="I124" s="26">
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J124" s="13"/>
@@ -16533,8 +16546,8 @@
       <c r="H125" s="13">
         <v>20220817</v>
       </c>
-      <c r="I125" s="28">
-        <f>DATE(E125,F125,G125)</f>
+      <c r="I125" s="26">
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J125" s="13"/>
@@ -16567,8 +16580,8 @@
       <c r="H126" s="13">
         <v>20220817</v>
       </c>
-      <c r="I126" s="28">
-        <f>DATE(E126,F126,G126)</f>
+      <c r="I126" s="26">
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J126" s="13"/>
@@ -16601,8 +16614,8 @@
       <c r="H127" s="13">
         <v>20220817</v>
       </c>
-      <c r="I127" s="28">
-        <f>DATE(E127,F127,G127)</f>
+      <c r="I127" s="26">
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J127" s="13"/>
@@ -16635,8 +16648,8 @@
       <c r="H128" s="17">
         <v>20220907</v>
       </c>
-      <c r="I128" s="30">
-        <f>DATE(E128,F128,G128)</f>
+      <c r="I128" s="28">
+        <f t="shared" si="1"/>
         <v>44811</v>
       </c>
       <c r="J128" s="17" t="s">
@@ -16674,8 +16687,8 @@
       <c r="H129" s="17">
         <v>20220907</v>
       </c>
-      <c r="I129" s="30">
-        <f>DATE(E129,F129,G129)</f>
+      <c r="I129" s="28">
+        <f t="shared" si="1"/>
         <v>44811</v>
       </c>
       <c r="J129" s="17" t="s">
@@ -16713,8 +16726,8 @@
       <c r="H130" s="17">
         <v>20220907</v>
       </c>
-      <c r="I130" s="30">
-        <f>DATE(E130,F130,G130)</f>
+      <c r="I130" s="28">
+        <f t="shared" ref="I130:I193" si="2">DATE(E130,F130,G130)</f>
         <v>44811</v>
       </c>
       <c r="J130" s="17" t="s">
@@ -16752,8 +16765,8 @@
       <c r="H131" s="13">
         <v>20220907</v>
       </c>
-      <c r="I131" s="28">
-        <f>DATE(E131,F131,G131)</f>
+      <c r="I131" s="26">
+        <f t="shared" si="2"/>
         <v>44811</v>
       </c>
       <c r="J131" s="13" t="s">
@@ -16788,8 +16801,8 @@
       <c r="H132" s="13">
         <v>20220930</v>
       </c>
-      <c r="I132" s="28">
-        <f>DATE(E132,F132,G132)</f>
+      <c r="I132" s="26">
+        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
       <c r="J132" s="13"/>
@@ -16822,8 +16835,8 @@
       <c r="H133" s="13">
         <v>20220930</v>
       </c>
-      <c r="I133" s="28">
-        <f>DATE(E133,F133,G133)</f>
+      <c r="I133" s="26">
+        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
       <c r="J133" s="13"/>
@@ -16856,8 +16869,8 @@
       <c r="H134" s="13">
         <v>20220930</v>
       </c>
-      <c r="I134" s="28">
-        <f>DATE(E134,F134,G134)</f>
+      <c r="I134" s="26">
+        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
       <c r="J134" s="13"/>
@@ -16890,8 +16903,8 @@
       <c r="H135" s="13">
         <v>20220930</v>
       </c>
-      <c r="I135" s="28">
-        <f>DATE(E135,F135,G135)</f>
+      <c r="I135" s="26">
+        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
       <c r="J135" s="13"/>
@@ -16924,16 +16937,18 @@
       <c r="H136" s="13">
         <v>20221020</v>
       </c>
-      <c r="I136" s="28">
-        <f>DATE(E136,F136,G136)</f>
+      <c r="I136" s="26">
+        <f t="shared" si="2"/>
         <v>44854</v>
       </c>
-      <c r="J136" s="13"/>
+      <c r="J136" s="13" t="s">
+        <v>488</v>
+      </c>
       <c r="K136" t="s">
         <v>486</v>
       </c>
       <c r="M136" t="s">
-        <v>286</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -16961,8 +16976,8 @@
       <c r="H137" s="13">
         <v>20221020</v>
       </c>
-      <c r="I137" s="28">
-        <f>DATE(E137,F137,G137)</f>
+      <c r="I137" s="26">
+        <f t="shared" si="2"/>
         <v>44854</v>
       </c>
       <c r="J137" s="13"/>
@@ -16970,7 +16985,7 @@
         <v>487</v>
       </c>
       <c r="M137" t="s">
-        <v>286</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -16998,13 +17013,13 @@
       <c r="H138" s="13">
         <v>20221020</v>
       </c>
-      <c r="I138" s="28">
-        <f>DATE(E138,F138,G138)</f>
+      <c r="I138" s="26">
+        <f t="shared" si="2"/>
         <v>44854</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="M138" t="s">
         <v>286</v>
@@ -17035,8 +17050,8 @@
       <c r="H139" s="13">
         <v>20210611</v>
       </c>
-      <c r="I139" s="28">
-        <f>DATE(E139,F139,G139)</f>
+      <c r="I139" s="26">
+        <f t="shared" si="2"/>
         <v>44358</v>
       </c>
       <c r="J139" s="13"/>
@@ -17069,8 +17084,8 @@
       <c r="H140" s="13">
         <v>20210611</v>
       </c>
-      <c r="I140" s="28">
-        <f>DATE(E140,F140,G140)</f>
+      <c r="I140" s="26">
+        <f t="shared" si="2"/>
         <v>44358</v>
       </c>
       <c r="J140" s="13"/>
@@ -17103,8 +17118,8 @@
       <c r="H141" s="13">
         <v>20210611</v>
       </c>
-      <c r="I141" s="28">
-        <f>DATE(E141,F141,G141)</f>
+      <c r="I141" s="26">
+        <f t="shared" si="2"/>
         <v>44358</v>
       </c>
       <c r="J141" s="13"/>
@@ -17137,8 +17152,8 @@
       <c r="H142" s="13">
         <v>20220628</v>
       </c>
-      <c r="I142" s="28">
-        <f>DATE(E142,F142,G142)</f>
+      <c r="I142" s="26">
+        <f t="shared" si="2"/>
         <v>44740</v>
       </c>
       <c r="J142" s="13"/>
@@ -17171,8 +17186,8 @@
       <c r="H143" s="13">
         <v>20210720</v>
       </c>
-      <c r="I143" s="28">
-        <f>DATE(E143,F143,G143)</f>
+      <c r="I143" s="26">
+        <f t="shared" si="2"/>
         <v>44397</v>
       </c>
       <c r="J143" s="13"/>
@@ -17205,8 +17220,8 @@
       <c r="H144" s="13">
         <v>20210720</v>
       </c>
-      <c r="I144" s="28">
-        <f>DATE(E144,F144,G144)</f>
+      <c r="I144" s="26">
+        <f t="shared" si="2"/>
         <v>44397</v>
       </c>
       <c r="J144" s="13"/>
@@ -17239,8 +17254,8 @@
       <c r="H145" s="13">
         <v>20210805</v>
       </c>
-      <c r="I145" s="28">
-        <f>DATE(E145,F145,G145)</f>
+      <c r="I145" s="26">
+        <f t="shared" si="2"/>
         <v>44413</v>
       </c>
       <c r="J145" s="13"/>
@@ -17273,8 +17288,8 @@
       <c r="H146" s="13">
         <v>20210805</v>
       </c>
-      <c r="I146" s="28">
-        <f>DATE(E146,F146,G146)</f>
+      <c r="I146" s="26">
+        <f t="shared" si="2"/>
         <v>44413</v>
       </c>
       <c r="J146" s="13"/>
@@ -17307,8 +17322,8 @@
       <c r="H147" s="13">
         <v>20210817</v>
       </c>
-      <c r="I147" s="28">
-        <f>DATE(E147,F147,G147)</f>
+      <c r="I147" s="26">
+        <f t="shared" si="2"/>
         <v>44425</v>
       </c>
       <c r="J147" s="13"/>
@@ -17341,8 +17356,8 @@
       <c r="H148" s="13">
         <v>20210817</v>
       </c>
-      <c r="I148" s="28">
-        <f>DATE(E148,F148,G148)</f>
+      <c r="I148" s="26">
+        <f t="shared" si="2"/>
         <v>44425</v>
       </c>
       <c r="J148" s="13"/>
@@ -17375,8 +17390,8 @@
       <c r="H149" s="13">
         <v>20210817</v>
       </c>
-      <c r="I149" s="28">
-        <f>DATE(E149,F149,G149)</f>
+      <c r="I149" s="26">
+        <f t="shared" si="2"/>
         <v>44425</v>
       </c>
       <c r="J149" s="13"/>
@@ -17409,8 +17424,8 @@
       <c r="H150" s="13">
         <v>20210914</v>
       </c>
-      <c r="I150" s="28">
-        <f>DATE(E150,F150,G150)</f>
+      <c r="I150" s="26">
+        <f t="shared" si="2"/>
         <v>44453</v>
       </c>
       <c r="J150" s="13"/>
@@ -17443,8 +17458,8 @@
       <c r="H151" s="13">
         <v>20210914</v>
       </c>
-      <c r="I151" s="28">
-        <f>DATE(E151,F151,G151)</f>
+      <c r="I151" s="26">
+        <f t="shared" si="2"/>
         <v>44453</v>
       </c>
       <c r="J151" s="13"/>
@@ -17477,8 +17492,8 @@
       <c r="H152" s="13">
         <v>20210914</v>
       </c>
-      <c r="I152" s="28">
-        <f>DATE(E152,F152,G152)</f>
+      <c r="I152" s="26">
+        <f t="shared" si="2"/>
         <v>44453</v>
       </c>
       <c r="J152" s="13"/>
@@ -17511,8 +17526,8 @@
       <c r="H153" s="13">
         <v>20211019</v>
       </c>
-      <c r="I153" s="28">
-        <f>DATE(E153,F153,G153)</f>
+      <c r="I153" s="26">
+        <f t="shared" si="2"/>
         <v>44488</v>
       </c>
       <c r="J153" s="13"/>
@@ -17545,8 +17560,8 @@
       <c r="H154" s="13">
         <v>20211019</v>
       </c>
-      <c r="I154" s="28">
-        <f>DATE(E154,F154,G154)</f>
+      <c r="I154" s="26">
+        <f t="shared" si="2"/>
         <v>44488</v>
       </c>
       <c r="J154" s="13"/>
@@ -17579,8 +17594,8 @@
       <c r="H155" s="13">
         <v>20211019</v>
       </c>
-      <c r="I155" s="28">
-        <f>DATE(E155,F155,G155)</f>
+      <c r="I155" s="26">
+        <f t="shared" si="2"/>
         <v>44488</v>
       </c>
       <c r="J155" s="13"/>
@@ -17613,8 +17628,8 @@
       <c r="H156" s="13">
         <v>20211109</v>
       </c>
-      <c r="I156" s="28">
-        <f>DATE(E156,F156,G156)</f>
+      <c r="I156" s="26">
+        <f t="shared" si="2"/>
         <v>44509</v>
       </c>
       <c r="J156" s="13"/>
@@ -17647,8 +17662,8 @@
       <c r="H157" s="13">
         <v>20211109</v>
       </c>
-      <c r="I157" s="28">
-        <f>DATE(E157,F157,G157)</f>
+      <c r="I157" s="26">
+        <f t="shared" si="2"/>
         <v>44509</v>
       </c>
       <c r="J157" s="13"/>
@@ -17681,8 +17696,8 @@
       <c r="H158" s="13">
         <v>20211109</v>
       </c>
-      <c r="I158" s="28">
-        <f>DATE(E158,F158,G158)</f>
+      <c r="I158" s="26">
+        <f t="shared" si="2"/>
         <v>44509</v>
       </c>
       <c r="J158" s="13"/>
@@ -17715,8 +17730,8 @@
       <c r="H159" s="22">
         <v>20210616</v>
       </c>
-      <c r="I159" s="29">
-        <f>DATE(E159,F159,G159)</f>
+      <c r="I159" s="27">
+        <f t="shared" si="2"/>
         <v>44363</v>
       </c>
       <c r="J159" s="22"/>
@@ -17752,8 +17767,8 @@
       <c r="H160" s="22">
         <v>20210616</v>
       </c>
-      <c r="I160" s="29">
-        <f>DATE(E160,F160,G160)</f>
+      <c r="I160" s="27">
+        <f t="shared" si="2"/>
         <v>44363</v>
       </c>
       <c r="J160" s="22"/>
@@ -17786,8 +17801,8 @@
       <c r="H161" s="22">
         <v>20210617</v>
       </c>
-      <c r="I161" s="29">
-        <f>DATE(E161,F161,G161)</f>
+      <c r="I161" s="27">
+        <f t="shared" si="2"/>
         <v>44364</v>
       </c>
       <c r="J161" s="22"/>
@@ -17820,8 +17835,8 @@
       <c r="H162" s="22">
         <v>20210727</v>
       </c>
-      <c r="I162" s="29">
-        <f>DATE(E162,F162,G162)</f>
+      <c r="I162" s="27">
+        <f t="shared" si="2"/>
         <v>44404</v>
       </c>
       <c r="J162" s="22"/>
@@ -17854,8 +17869,8 @@
       <c r="H163" s="22">
         <v>20210727</v>
       </c>
-      <c r="I163" s="29">
-        <f>DATE(E163,F163,G163)</f>
+      <c r="I163" s="27">
+        <f t="shared" si="2"/>
         <v>44404</v>
       </c>
       <c r="J163" s="22"/>
@@ -17888,8 +17903,8 @@
       <c r="H164" s="22">
         <v>20210727</v>
       </c>
-      <c r="I164" s="29">
-        <f>DATE(E164,F164,G164)</f>
+      <c r="I164" s="27">
+        <f t="shared" si="2"/>
         <v>44404</v>
       </c>
       <c r="J164" s="22"/>
@@ -17922,8 +17937,8 @@
       <c r="H165" s="22">
         <v>20210810</v>
       </c>
-      <c r="I165" s="29">
-        <f>DATE(E165,F165,G165)</f>
+      <c r="I165" s="27">
+        <f t="shared" si="2"/>
         <v>44418</v>
       </c>
       <c r="J165" s="22"/>
@@ -17956,8 +17971,8 @@
       <c r="H166" s="22">
         <v>20210810</v>
       </c>
-      <c r="I166" s="29">
-        <f>DATE(E166,F166,G166)</f>
+      <c r="I166" s="27">
+        <f t="shared" si="2"/>
         <v>44418</v>
       </c>
       <c r="J166" s="22"/>
@@ -17990,12 +18005,12 @@
       <c r="H167" s="13">
         <v>20210617</v>
       </c>
-      <c r="I167" s="28">
-        <f>DATE(E167,F167,G167)</f>
+      <c r="I167" s="26">
+        <f t="shared" si="2"/>
         <v>44364</v>
       </c>
       <c r="J167" s="13"/>
-      <c r="K167" s="24" t="s">
+      <c r="K167" s="21" t="s">
         <v>473</v>
       </c>
     </row>
@@ -18024,12 +18039,12 @@
       <c r="H168" s="13">
         <v>20210617</v>
       </c>
-      <c r="I168" s="28">
-        <f>DATE(E168,F168,G168)</f>
+      <c r="I168" s="26">
+        <f t="shared" si="2"/>
         <v>44364</v>
       </c>
       <c r="J168" s="13"/>
-      <c r="K168" s="24" t="s">
+      <c r="K168" s="21" t="s">
         <v>473</v>
       </c>
     </row>
@@ -18058,12 +18073,12 @@
       <c r="H169" s="13">
         <v>20210617</v>
       </c>
-      <c r="I169" s="28">
-        <f>DATE(E169,F169,G169)</f>
+      <c r="I169" s="26">
+        <f t="shared" si="2"/>
         <v>44364</v>
       </c>
       <c r="J169" s="13"/>
-      <c r="K169" s="24" t="s">
+      <c r="K169" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -18092,12 +18107,12 @@
       <c r="H170" s="13">
         <v>20210617</v>
       </c>
-      <c r="I170" s="28">
-        <f>DATE(E170,F170,G170)</f>
+      <c r="I170" s="26">
+        <f t="shared" si="2"/>
         <v>44364</v>
       </c>
       <c r="J170" s="13"/>
-      <c r="K170" s="24" t="s">
+      <c r="K170" s="21" t="s">
         <v>473</v>
       </c>
     </row>
@@ -18126,12 +18141,12 @@
       <c r="H171" s="13">
         <v>20220511</v>
       </c>
-      <c r="I171" s="28">
-        <f>DATE(E171,F171,G171)</f>
+      <c r="I171" s="26">
+        <f t="shared" si="2"/>
         <v>44692</v>
       </c>
       <c r="J171" s="13"/>
-      <c r="K171" s="24" t="s">
+      <c r="K171" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18160,12 +18175,12 @@
       <c r="H172" s="13">
         <v>20220511</v>
       </c>
-      <c r="I172" s="28">
-        <f>DATE(E172,F172,G172)</f>
+      <c r="I172" s="26">
+        <f t="shared" si="2"/>
         <v>44692</v>
       </c>
       <c r="J172" s="13"/>
-      <c r="K172" s="24" t="s">
+      <c r="K172" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18194,12 +18209,12 @@
       <c r="H173" s="13">
         <v>20220511</v>
       </c>
-      <c r="I173" s="28">
-        <f>DATE(E173,F173,G173)</f>
+      <c r="I173" s="26">
+        <f t="shared" si="2"/>
         <v>44692</v>
       </c>
       <c r="J173" s="13"/>
-      <c r="K173" s="24" t="s">
+      <c r="K173" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18228,12 +18243,12 @@
       <c r="H174" s="13">
         <v>20220511</v>
       </c>
-      <c r="I174" s="28">
-        <f>DATE(E174,F174,G174)</f>
+      <c r="I174" s="26">
+        <f t="shared" si="2"/>
         <v>44692</v>
       </c>
       <c r="J174" s="13"/>
-      <c r="K174" s="25" t="s">
+      <c r="K174" s="24" t="s">
         <v>477</v>
       </c>
     </row>
@@ -18262,12 +18277,12 @@
       <c r="H175" s="17">
         <v>20220524</v>
       </c>
-      <c r="I175" s="30">
-        <f>DATE(E175,F175,G175)</f>
+      <c r="I175" s="28">
+        <f t="shared" si="2"/>
         <v>44705</v>
       </c>
       <c r="J175" s="17"/>
-      <c r="K175" s="26" t="s">
+      <c r="K175" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L175" t="s">
@@ -18299,12 +18314,12 @@
       <c r="H176" s="17">
         <v>20220524</v>
       </c>
-      <c r="I176" s="30">
-        <f>DATE(E176,F176,G176)</f>
+      <c r="I176" s="28">
+        <f t="shared" si="2"/>
         <v>44705</v>
       </c>
       <c r="J176" s="17"/>
-      <c r="K176" s="26" t="s">
+      <c r="K176" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L176" t="s">
@@ -18336,12 +18351,12 @@
       <c r="H177" s="17">
         <v>20220524</v>
       </c>
-      <c r="I177" s="30">
-        <f>DATE(E177,F177,G177)</f>
+      <c r="I177" s="28">
+        <f t="shared" si="2"/>
         <v>44705</v>
       </c>
       <c r="J177" s="17"/>
-      <c r="K177" s="26" t="s">
+      <c r="K177" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L177" t="s">
@@ -18373,12 +18388,12 @@
       <c r="H178" s="13">
         <v>20220608</v>
       </c>
-      <c r="I178" s="28">
-        <f>DATE(E178,F178,G178)</f>
+      <c r="I178" s="26">
+        <f t="shared" si="2"/>
         <v>44720</v>
       </c>
       <c r="J178" s="13"/>
-      <c r="K178" s="24" t="s">
+      <c r="K178" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18407,12 +18422,12 @@
       <c r="H179" s="13">
         <v>20220608</v>
       </c>
-      <c r="I179" s="28">
-        <f>DATE(E179,F179,G179)</f>
+      <c r="I179" s="26">
+        <f t="shared" si="2"/>
         <v>44720</v>
       </c>
       <c r="J179" s="13"/>
-      <c r="K179" s="24" t="s">
+      <c r="K179" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18441,12 +18456,12 @@
       <c r="H180" s="13">
         <v>20220608</v>
       </c>
-      <c r="I180" s="28">
-        <f>DATE(E180,F180,G180)</f>
+      <c r="I180" s="26">
+        <f t="shared" si="2"/>
         <v>44720</v>
       </c>
       <c r="J180" s="13"/>
-      <c r="K180" s="24" t="s">
+      <c r="K180" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18475,12 +18490,12 @@
       <c r="H181" s="13">
         <v>20220621</v>
       </c>
-      <c r="I181" s="28">
-        <f>DATE(E181,F181,G181)</f>
+      <c r="I181" s="26">
+        <f t="shared" si="2"/>
         <v>44733</v>
       </c>
       <c r="J181" s="13"/>
-      <c r="K181" s="24" t="s">
+      <c r="K181" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18509,12 +18524,12 @@
       <c r="H182" s="13">
         <v>20220621</v>
       </c>
-      <c r="I182" s="28">
-        <f>DATE(E182,F182,G182)</f>
+      <c r="I182" s="26">
+        <f t="shared" si="2"/>
         <v>44733</v>
       </c>
       <c r="J182" s="13"/>
-      <c r="K182" s="24" t="s">
+      <c r="K182" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18543,12 +18558,12 @@
       <c r="H183" s="13">
         <v>20220621</v>
       </c>
-      <c r="I183" s="28">
-        <f>DATE(E183,F183,G183)</f>
+      <c r="I183" s="26">
+        <f t="shared" si="2"/>
         <v>44733</v>
       </c>
       <c r="J183" s="13"/>
-      <c r="K183" s="24" t="s">
+      <c r="K183" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18577,8 +18592,8 @@
       <c r="H184" s="14">
         <v>20220712</v>
       </c>
-      <c r="I184" s="29">
-        <f>DATE(E184,F184,G184)</f>
+      <c r="I184" s="27">
+        <f t="shared" si="2"/>
         <v>44754</v>
       </c>
       <c r="J184" s="14"/>
@@ -18611,8 +18626,8 @@
       <c r="H185" s="14">
         <v>20220712</v>
       </c>
-      <c r="I185" s="29">
-        <f>DATE(E185,F185,G185)</f>
+      <c r="I185" s="27">
+        <f t="shared" si="2"/>
         <v>44754</v>
       </c>
       <c r="J185" s="14"/>
@@ -18645,8 +18660,8 @@
       <c r="H186" s="14">
         <v>20220712</v>
       </c>
-      <c r="I186" s="29">
-        <f>DATE(E186,F186,G186)</f>
+      <c r="I186" s="27">
+        <f t="shared" si="2"/>
         <v>44754</v>
       </c>
       <c r="J186" s="14"/>
@@ -18679,12 +18694,12 @@
       <c r="H187" s="13">
         <v>20220728</v>
       </c>
-      <c r="I187" s="28">
-        <f>DATE(E187,F187,G187)</f>
+      <c r="I187" s="26">
+        <f t="shared" si="2"/>
         <v>44770</v>
       </c>
       <c r="J187" s="13"/>
-      <c r="K187" s="24" t="s">
+      <c r="K187" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18713,12 +18728,12 @@
       <c r="H188" s="13">
         <v>20220728</v>
       </c>
-      <c r="I188" s="28">
-        <f>DATE(E188,F188,G188)</f>
+      <c r="I188" s="26">
+        <f t="shared" si="2"/>
         <v>44770</v>
       </c>
       <c r="J188" s="13"/>
-      <c r="K188" s="24" t="s">
+      <c r="K188" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18747,12 +18762,12 @@
       <c r="H189" s="13">
         <v>20220728</v>
       </c>
-      <c r="I189" s="28">
-        <f>DATE(E189,F189,G189)</f>
+      <c r="I189" s="26">
+        <f t="shared" si="2"/>
         <v>44770</v>
       </c>
       <c r="J189" s="13"/>
-      <c r="K189" s="24" t="s">
+      <c r="K189" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18781,12 +18796,12 @@
       <c r="H190" s="13">
         <v>20220812</v>
       </c>
-      <c r="I190" s="28">
-        <f>DATE(E190,F190,G190)</f>
+      <c r="I190" s="26">
+        <f t="shared" si="2"/>
         <v>44785</v>
       </c>
       <c r="J190" s="13"/>
-      <c r="K190" s="24" t="s">
+      <c r="K190" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18815,12 +18830,12 @@
       <c r="H191" s="13">
         <v>20220812</v>
       </c>
-      <c r="I191" s="28">
-        <f>DATE(E191,F191,G191)</f>
+      <c r="I191" s="26">
+        <f t="shared" si="2"/>
         <v>44785</v>
       </c>
       <c r="J191" s="13"/>
-      <c r="K191" s="24" t="s">
+      <c r="K191" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18849,12 +18864,12 @@
       <c r="H192" s="13">
         <v>20220812</v>
       </c>
-      <c r="I192" s="28">
-        <f>DATE(E192,F192,G192)</f>
+      <c r="I192" s="26">
+        <f t="shared" si="2"/>
         <v>44785</v>
       </c>
       <c r="J192" s="13"/>
-      <c r="K192" s="24" t="s">
+      <c r="K192" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -18883,12 +18898,12 @@
       <c r="H193" s="13">
         <v>20220812</v>
       </c>
-      <c r="I193" s="28">
-        <f>DATE(E193,F193,G193)</f>
+      <c r="I193" s="26">
+        <f t="shared" si="2"/>
         <v>44785</v>
       </c>
       <c r="J193" s="13"/>
-      <c r="K193" s="24" t="s">
+      <c r="K193" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -18917,8 +18932,8 @@
       <c r="H194" s="14">
         <v>20220819</v>
       </c>
-      <c r="I194" s="29">
-        <f>DATE(E194,F194,G194)</f>
+      <c r="I194" s="27">
+        <f t="shared" ref="I194:I256" si="3">DATE(E194,F194,G194)</f>
         <v>44792</v>
       </c>
       <c r="J194" s="14"/>
@@ -18951,8 +18966,8 @@
       <c r="H195" s="14">
         <v>20220819</v>
       </c>
-      <c r="I195" s="29">
-        <f>DATE(E195,F195,G195)</f>
+      <c r="I195" s="27">
+        <f t="shared" si="3"/>
         <v>44792</v>
       </c>
       <c r="J195" s="14"/>
@@ -18961,36 +18976,36 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A196" s="27" t="s">
+      <c r="A196" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B196" s="27" t="s">
+      <c r="B196" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D196" s="27" t="s">
+      <c r="D196" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="E196" s="27">
+      <c r="E196" s="13">
         <v>2022</v>
       </c>
-      <c r="F196" s="27">
+      <c r="F196" s="13">
         <v>8</v>
       </c>
-      <c r="G196" s="27">
+      <c r="G196" s="13">
         <v>19</v>
       </c>
-      <c r="H196" s="27">
+      <c r="H196" s="13">
         <v>20220819</v>
       </c>
-      <c r="I196" s="28">
-        <f>DATE(E196,F196,G196)</f>
+      <c r="I196" s="26">
+        <f t="shared" si="3"/>
         <v>44792</v>
       </c>
-      <c r="J196" s="27"/>
-      <c r="K196" s="24" t="s">
+      <c r="J196" s="13"/>
+      <c r="K196" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -19019,8 +19034,8 @@
       <c r="H197" s="14">
         <v>20220819</v>
       </c>
-      <c r="I197" s="29">
-        <f>DATE(E197,F197,G197)</f>
+      <c r="I197" s="27">
+        <f t="shared" si="3"/>
         <v>44792</v>
       </c>
       <c r="J197" s="14"/>
@@ -19053,12 +19068,12 @@
       <c r="H198" s="17">
         <v>20220831</v>
       </c>
-      <c r="I198" s="30">
-        <f>DATE(E198,F198,G198)</f>
+      <c r="I198" s="28">
+        <f t="shared" si="3"/>
         <v>44804</v>
       </c>
       <c r="J198" s="17"/>
-      <c r="K198" s="26" t="s">
+      <c r="K198" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L198" t="s">
@@ -19090,12 +19105,12 @@
       <c r="H199" s="17">
         <v>20220831</v>
       </c>
-      <c r="I199" s="30">
-        <f>DATE(E199,F199,G199)</f>
+      <c r="I199" s="28">
+        <f t="shared" si="3"/>
         <v>44804</v>
       </c>
       <c r="J199" s="17"/>
-      <c r="K199" s="26" t="s">
+      <c r="K199" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L199" t="s">
@@ -19127,12 +19142,12 @@
       <c r="H200" s="17">
         <v>20220831</v>
       </c>
-      <c r="I200" s="30">
-        <f>DATE(E200,F200,G200)</f>
+      <c r="I200" s="28">
+        <f t="shared" si="3"/>
         <v>44804</v>
       </c>
       <c r="J200" s="17"/>
-      <c r="K200" s="26" t="s">
+      <c r="K200" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L200" t="s">
@@ -19140,70 +19155,70 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D201" s="27" t="s">
+      <c r="D201" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="E201" s="27">
+      <c r="E201" s="13">
         <v>2022</v>
       </c>
-      <c r="F201" s="27">
+      <c r="F201" s="13">
         <v>8</v>
       </c>
-      <c r="G201" s="27">
+      <c r="G201" s="13">
         <v>31</v>
       </c>
-      <c r="H201" s="27">
+      <c r="H201" s="13">
         <v>20220831</v>
       </c>
-      <c r="I201" s="28">
-        <f>DATE(E201,F201,G201)</f>
+      <c r="I201" s="26">
+        <f t="shared" si="3"/>
         <v>44804</v>
       </c>
-      <c r="J201" s="27"/>
-      <c r="K201" s="24" t="s">
+      <c r="J201" s="13"/>
+      <c r="K201" s="21" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D202" s="27" t="s">
+      <c r="D202" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E202" s="27">
+      <c r="E202" s="13">
         <v>2022</v>
       </c>
-      <c r="F202" s="27">
+      <c r="F202" s="13">
         <v>9</v>
       </c>
-      <c r="G202" s="27">
+      <c r="G202" s="13">
         <v>12</v>
       </c>
-      <c r="H202" s="27">
+      <c r="H202" s="13">
         <v>20220912</v>
       </c>
-      <c r="I202" s="28">
-        <f>DATE(E202,F202,G202)</f>
+      <c r="I202" s="26">
+        <f t="shared" si="3"/>
         <v>44816</v>
       </c>
-      <c r="J202" s="27"/>
-      <c r="K202" s="24" t="s">
+      <c r="J202" s="13"/>
+      <c r="K202" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -19232,12 +19247,12 @@
       <c r="H203" s="13">
         <v>20220912</v>
       </c>
-      <c r="I203" s="28">
-        <f>DATE(E203,F203,G203)</f>
+      <c r="I203" s="26">
+        <f t="shared" si="3"/>
         <v>44816</v>
       </c>
       <c r="J203" s="13"/>
-      <c r="K203" s="24" t="s">
+      <c r="K203" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -19266,12 +19281,12 @@
       <c r="H204" s="13">
         <v>20220912</v>
       </c>
-      <c r="I204" s="28">
-        <f>DATE(E204,F204,G204)</f>
+      <c r="I204" s="26">
+        <f t="shared" si="3"/>
         <v>44816</v>
       </c>
       <c r="J204" s="13"/>
-      <c r="K204" s="24" t="s">
+      <c r="K204" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -19300,12 +19315,12 @@
       <c r="H205" s="13">
         <v>20220912</v>
       </c>
-      <c r="I205" s="28">
-        <f>DATE(E205,F205,G205)</f>
+      <c r="I205" s="26">
+        <f t="shared" si="3"/>
         <v>44816</v>
       </c>
       <c r="J205" s="13"/>
-      <c r="K205" s="24" t="s">
+      <c r="K205" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -19334,14 +19349,14 @@
       <c r="H206" s="13">
         <v>20220928</v>
       </c>
-      <c r="I206" s="28">
-        <f>DATE(E206,F206,G206)</f>
+      <c r="I206" s="26">
+        <f t="shared" si="3"/>
         <v>44832</v>
       </c>
       <c r="J206" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K206" s="24" t="s">
+      <c r="K206" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19370,14 +19385,14 @@
       <c r="H207" s="13">
         <v>20220928</v>
       </c>
-      <c r="I207" s="28">
-        <f>DATE(E207,F207,G207)</f>
+      <c r="I207" s="26">
+        <f t="shared" si="3"/>
         <v>44832</v>
       </c>
       <c r="J207" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K207" s="24" t="s">
+      <c r="K207" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19406,14 +19421,14 @@
       <c r="H208" s="13">
         <v>20220928</v>
       </c>
-      <c r="I208" s="28">
-        <f>DATE(E208,F208,G208)</f>
+      <c r="I208" s="26">
+        <f t="shared" si="3"/>
         <v>44832</v>
       </c>
       <c r="J208" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K208" s="24" t="s">
+      <c r="K208" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -19442,14 +19457,14 @@
       <c r="H209" s="13">
         <v>20220928</v>
       </c>
-      <c r="I209" s="28">
-        <f>DATE(E209,F209,G209)</f>
+      <c r="I209" s="26">
+        <f t="shared" si="3"/>
         <v>44832</v>
       </c>
       <c r="J209" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K209" s="24" t="s">
+      <c r="K209" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19478,14 +19493,14 @@
       <c r="H210" s="13">
         <v>20221019</v>
       </c>
-      <c r="I210" s="28">
-        <f>DATE(E210,F210,G210)</f>
+      <c r="I210" s="26">
+        <f t="shared" si="3"/>
         <v>44853</v>
       </c>
       <c r="J210" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K210" s="25" t="s">
+      <c r="K210" s="24" t="s">
         <v>477</v>
       </c>
     </row>
@@ -19514,14 +19529,14 @@
       <c r="H211" s="13">
         <v>20221019</v>
       </c>
-      <c r="I211" s="28">
-        <f>DATE(E211,F211,G211)</f>
+      <c r="I211" s="26">
+        <f t="shared" si="3"/>
         <v>44853</v>
       </c>
       <c r="J211" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K211" s="25" t="s">
+      <c r="K211" s="24" t="s">
         <v>477</v>
       </c>
     </row>
@@ -19550,14 +19565,14 @@
       <c r="H212" s="13">
         <v>20221019</v>
       </c>
-      <c r="I212" s="28">
-        <f>DATE(E212,F212,G212)</f>
+      <c r="I212" s="26">
+        <f t="shared" si="3"/>
         <v>44853</v>
       </c>
       <c r="J212" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K212" s="24" t="s">
+      <c r="K212" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19586,14 +19601,14 @@
       <c r="H213" s="13">
         <v>20221028</v>
       </c>
-      <c r="I213" s="28">
-        <f>DATE(E213,F213,G213)</f>
+      <c r="I213" s="26">
+        <f t="shared" si="3"/>
         <v>44862</v>
       </c>
       <c r="J213" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K213" s="24" t="s">
+      <c r="K213" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19622,14 +19637,14 @@
       <c r="H214" s="13">
         <v>20221028</v>
       </c>
-      <c r="I214" s="28">
-        <f>DATE(E214,F214,G214)</f>
+      <c r="I214" s="26">
+        <f t="shared" si="3"/>
         <v>44862</v>
       </c>
       <c r="J214" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K214" s="24" t="s">
+      <c r="K214" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19658,14 +19673,14 @@
       <c r="H215" s="13">
         <v>20221028</v>
       </c>
-      <c r="I215" s="28">
-        <f>DATE(E215,F215,G215)</f>
+      <c r="I215" s="26">
+        <f t="shared" si="3"/>
         <v>44862</v>
       </c>
       <c r="J215" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K215" s="24" t="s">
+      <c r="K215" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19694,14 +19709,14 @@
       <c r="H216" s="13">
         <v>20221028</v>
       </c>
-      <c r="I216" s="28">
-        <f>DATE(E216,F216,G216)</f>
+      <c r="I216" s="26">
+        <f t="shared" si="3"/>
         <v>44862</v>
       </c>
       <c r="J216" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K216" s="24" t="s">
+      <c r="K216" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -19730,12 +19745,12 @@
       <c r="H217" s="13">
         <v>20210629</v>
       </c>
-      <c r="I217" s="28">
-        <f>DATE(E217,F217,G217)</f>
+      <c r="I217" s="26">
+        <f t="shared" si="3"/>
         <v>44376</v>
       </c>
       <c r="J217" s="13"/>
-      <c r="K217" s="24" t="s">
+      <c r="K217" s="21" t="s">
         <v>454</v>
       </c>
     </row>
@@ -19764,12 +19779,12 @@
       <c r="H218" s="13">
         <v>20210629</v>
       </c>
-      <c r="I218" s="28">
-        <f>DATE(E218,F218,G218)</f>
+      <c r="I218" s="26">
+        <f t="shared" si="3"/>
         <v>44376</v>
       </c>
       <c r="J218" s="13"/>
-      <c r="K218" s="24" t="s">
+      <c r="K218" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -19798,12 +19813,12 @@
       <c r="H219" s="13">
         <v>20210629</v>
       </c>
-      <c r="I219" s="28">
-        <f>DATE(E219,F219,G219)</f>
+      <c r="I219" s="26">
+        <f t="shared" si="3"/>
         <v>44376</v>
       </c>
       <c r="J219" s="13"/>
-      <c r="K219" s="24" t="s">
+      <c r="K219" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -19832,12 +19847,12 @@
       <c r="H220" s="17">
         <v>20210827</v>
       </c>
-      <c r="I220" s="30">
-        <f>DATE(E220,F220,G220)</f>
+      <c r="I220" s="28">
+        <f t="shared" si="3"/>
         <v>44435</v>
       </c>
       <c r="J220" s="17"/>
-      <c r="K220" s="26" t="s">
+      <c r="K220" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L220" t="s">
@@ -19869,12 +19884,12 @@
       <c r="H221" s="17">
         <v>20210827</v>
       </c>
-      <c r="I221" s="30">
-        <f>DATE(E221,F221,G221)</f>
+      <c r="I221" s="28">
+        <f t="shared" si="3"/>
         <v>44435</v>
       </c>
       <c r="J221" s="17"/>
-      <c r="K221" s="26" t="s">
+      <c r="K221" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L221" t="s">
@@ -19906,12 +19921,12 @@
       <c r="H222" s="17">
         <v>20210827</v>
       </c>
-      <c r="I222" s="30">
-        <f>DATE(E222,F222,G222)</f>
+      <c r="I222" s="28">
+        <f t="shared" si="3"/>
         <v>44435</v>
       </c>
       <c r="J222" s="17"/>
-      <c r="K222" s="26" t="s">
+      <c r="K222" s="25" t="s">
         <v>447</v>
       </c>
       <c r="L222" t="s">
@@ -19943,8 +19958,8 @@
       <c r="H223" s="13">
         <v>20210602</v>
       </c>
-      <c r="I223" s="28">
-        <f>DATE(E223,F223,G223)</f>
+      <c r="I223" s="26">
+        <f t="shared" si="3"/>
         <v>44349</v>
       </c>
       <c r="J223" s="13" t="s">
@@ -19976,8 +19991,8 @@
       <c r="H224" s="13">
         <v>20210602</v>
       </c>
-      <c r="I224" s="28">
-        <f>DATE(E224,F224,G224)</f>
+      <c r="I224" s="26">
+        <f t="shared" si="3"/>
         <v>44349</v>
       </c>
       <c r="J224" s="13" t="s">
@@ -20009,8 +20024,8 @@
       <c r="H225" s="13">
         <v>20210602</v>
       </c>
-      <c r="I225" s="28">
-        <f>DATE(E225,F225,G225)</f>
+      <c r="I225" s="26">
+        <f t="shared" si="3"/>
         <v>44349</v>
       </c>
       <c r="J225" s="13" t="s">
@@ -20042,8 +20057,8 @@
       <c r="H226" s="13">
         <v>20210602</v>
       </c>
-      <c r="I226" s="28">
-        <f>DATE(E226,F226,G226)</f>
+      <c r="I226" s="26">
+        <f t="shared" si="3"/>
         <v>44349</v>
       </c>
       <c r="J226" s="13" t="s">
@@ -20078,8 +20093,8 @@
       <c r="H227" s="14">
         <v>20210707</v>
       </c>
-      <c r="I227" s="29">
-        <f>DATE(E227,F227,G227)</f>
+      <c r="I227" s="27">
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="J227" s="14"/>
@@ -20112,8 +20127,8 @@
       <c r="H228" s="13">
         <v>20210707</v>
       </c>
-      <c r="I228" s="28">
-        <f>DATE(E228,F228,G228)</f>
+      <c r="I228" s="26">
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="J228" s="13"/>
@@ -20146,8 +20161,8 @@
       <c r="H229" s="13">
         <v>20210707</v>
       </c>
-      <c r="I229" s="28">
-        <f>DATE(E229,F229,G229)</f>
+      <c r="I229" s="26">
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="J229" s="13"/>
@@ -20180,12 +20195,12 @@
       <c r="H230" s="13">
         <v>20210903</v>
       </c>
-      <c r="I230" s="28">
-        <f>DATE(E230,F230,G230)</f>
+      <c r="I230" s="26">
+        <f t="shared" si="3"/>
         <v>44442</v>
       </c>
       <c r="J230" s="13"/>
-      <c r="K230" s="24" t="s">
+      <c r="K230" s="21" t="s">
         <v>454</v>
       </c>
     </row>
@@ -20214,12 +20229,12 @@
       <c r="H231" s="13">
         <v>20210903</v>
       </c>
-      <c r="I231" s="28">
-        <f>DATE(E231,F231,G231)</f>
+      <c r="I231" s="26">
+        <f t="shared" si="3"/>
         <v>44442</v>
       </c>
       <c r="J231" s="13"/>
-      <c r="K231" s="24" t="s">
+      <c r="K231" s="21" t="s">
         <v>454</v>
       </c>
     </row>
@@ -20248,12 +20263,12 @@
       <c r="H232" s="13">
         <v>20210903</v>
       </c>
-      <c r="I232" s="28">
-        <f>DATE(E232,F232,G232)</f>
+      <c r="I232" s="26">
+        <f t="shared" si="3"/>
         <v>44442</v>
       </c>
       <c r="J232" s="13"/>
-      <c r="K232" s="24" t="s">
+      <c r="K232" s="21" t="s">
         <v>454</v>
       </c>
     </row>
@@ -20282,12 +20297,12 @@
       <c r="H233" s="13">
         <v>20220623</v>
       </c>
-      <c r="I233" s="28">
-        <f>DATE(E233,F233,G233)</f>
+      <c r="I233" s="26">
+        <f t="shared" si="3"/>
         <v>44735</v>
       </c>
       <c r="J233" s="13"/>
-      <c r="K233" s="24" t="s">
+      <c r="K233" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20316,12 +20331,12 @@
       <c r="H234" s="13">
         <v>20220623</v>
       </c>
-      <c r="I234" s="28">
-        <f>DATE(E234,F234,G234)</f>
+      <c r="I234" s="26">
+        <f t="shared" si="3"/>
         <v>44735</v>
       </c>
       <c r="J234" s="13"/>
-      <c r="K234" s="24" t="s">
+      <c r="K234" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20350,12 +20365,12 @@
       <c r="H235" s="13">
         <v>20220623</v>
       </c>
-      <c r="I235" s="28">
-        <f>DATE(E235,F235,G235)</f>
+      <c r="I235" s="26">
+        <f t="shared" si="3"/>
         <v>44735</v>
       </c>
       <c r="J235" s="13"/>
-      <c r="K235" s="24" t="s">
+      <c r="K235" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20384,12 +20399,12 @@
       <c r="H236" s="13">
         <v>20220726</v>
       </c>
-      <c r="I236" s="28">
-        <f>DATE(E236,F236,G236)</f>
+      <c r="I236" s="26">
+        <f t="shared" si="3"/>
         <v>44768</v>
       </c>
       <c r="J236" s="13"/>
-      <c r="K236" s="24" t="s">
+      <c r="K236" s="21" t="s">
         <v>465</v>
       </c>
     </row>
@@ -20418,12 +20433,12 @@
       <c r="H237" s="13">
         <v>20220726</v>
       </c>
-      <c r="I237" s="28">
-        <f>DATE(E237,F237,G237)</f>
+      <c r="I237" s="26">
+        <f t="shared" si="3"/>
         <v>44768</v>
       </c>
       <c r="J237" s="13"/>
-      <c r="K237" s="24" t="s">
+      <c r="K237" s="21" t="s">
         <v>465</v>
       </c>
     </row>
@@ -20452,12 +20467,12 @@
       <c r="H238" s="13">
         <v>20220726</v>
       </c>
-      <c r="I238" s="28">
-        <f>DATE(E238,F238,G238)</f>
+      <c r="I238" s="26">
+        <f t="shared" si="3"/>
         <v>44768</v>
       </c>
       <c r="J238" s="13"/>
-      <c r="K238" s="24" t="s">
+      <c r="K238" s="21" t="s">
         <v>465</v>
       </c>
     </row>
@@ -20486,12 +20501,12 @@
       <c r="H239" s="13">
         <v>20220817</v>
       </c>
-      <c r="I239" s="28">
-        <f>DATE(E239,F239,G239)</f>
+      <c r="I239" s="26">
+        <f t="shared" si="3"/>
         <v>44790</v>
       </c>
       <c r="J239" s="13"/>
-      <c r="K239" s="24" t="s">
+      <c r="K239" s="21" t="s">
         <v>481</v>
       </c>
     </row>
@@ -20520,12 +20535,12 @@
       <c r="H240" s="13">
         <v>20220817</v>
       </c>
-      <c r="I240" s="28">
-        <f>DATE(E240,F240,G240)</f>
+      <c r="I240" s="26">
+        <f t="shared" si="3"/>
         <v>44790</v>
       </c>
       <c r="J240" s="13"/>
-      <c r="K240" s="24" t="s">
+      <c r="K240" s="21" t="s">
         <v>481</v>
       </c>
     </row>
@@ -20554,12 +20569,12 @@
       <c r="H241" s="13">
         <v>20220817</v>
       </c>
-      <c r="I241" s="28">
-        <f>DATE(E241,F241,G241)</f>
+      <c r="I241" s="26">
+        <f t="shared" si="3"/>
         <v>44790</v>
       </c>
       <c r="J241" s="13"/>
-      <c r="K241" s="24" t="s">
+      <c r="K241" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -20588,12 +20603,12 @@
       <c r="H242" s="13">
         <v>20220817</v>
       </c>
-      <c r="I242" s="28">
-        <f>DATE(E242,F242,G242)</f>
+      <c r="I242" s="26">
+        <f t="shared" si="3"/>
         <v>44790</v>
       </c>
       <c r="J242" s="13"/>
-      <c r="K242" s="24" t="s">
+      <c r="K242" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20622,12 +20637,12 @@
       <c r="H243" s="13">
         <v>20220907</v>
       </c>
-      <c r="I243" s="28">
-        <f>DATE(E243,F243,G243)</f>
+      <c r="I243" s="26">
+        <f t="shared" si="3"/>
         <v>44811</v>
       </c>
       <c r="J243" s="13"/>
-      <c r="K243" s="24" t="s">
+      <c r="K243" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20656,12 +20671,12 @@
       <c r="H244" s="13">
         <v>20220907</v>
       </c>
-      <c r="I244" s="28">
-        <f>DATE(E244,F244,G244)</f>
+      <c r="I244" s="26">
+        <f t="shared" si="3"/>
         <v>44811</v>
       </c>
       <c r="J244" s="13"/>
-      <c r="K244" s="24" t="s">
+      <c r="K244" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -20690,12 +20705,12 @@
       <c r="H245" s="13">
         <v>20220907</v>
       </c>
-      <c r="I245" s="28">
-        <f>DATE(E245,F245,G245)</f>
+      <c r="I245" s="26">
+        <f t="shared" si="3"/>
         <v>44811</v>
       </c>
       <c r="J245" s="13"/>
-      <c r="K245" s="24" t="s">
+      <c r="K245" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20724,12 +20739,12 @@
       <c r="H246" s="13">
         <v>20220907</v>
       </c>
-      <c r="I246" s="28">
-        <f>DATE(E246,F246,G246)</f>
+      <c r="I246" s="26">
+        <f t="shared" si="3"/>
         <v>44811</v>
       </c>
       <c r="J246" s="13"/>
-      <c r="K246" s="24" t="s">
+      <c r="K246" s="21" t="s">
         <v>457</v>
       </c>
     </row>
@@ -20758,12 +20773,12 @@
       <c r="H247" s="13">
         <v>20221017</v>
       </c>
-      <c r="I247" s="28">
-        <f>DATE(E247,F247,G247)</f>
+      <c r="I247" s="26">
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="J247" s="13"/>
-      <c r="K247" s="24" t="s">
+      <c r="K247" s="21" t="s">
         <v>457</v>
       </c>
     </row>
@@ -20792,12 +20807,12 @@
       <c r="H248" s="13">
         <v>20221017</v>
       </c>
-      <c r="I248" s="28">
-        <f>DATE(E248,F248,G248)</f>
+      <c r="I248" s="26">
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="J248" s="13"/>
-      <c r="K248" s="24" t="s">
+      <c r="K248" s="21" t="s">
         <v>457</v>
       </c>
     </row>
@@ -20826,12 +20841,12 @@
       <c r="H249" s="13">
         <v>20221017</v>
       </c>
-      <c r="I249" s="28">
-        <f>DATE(E249,F249,G249)</f>
+      <c r="I249" s="26">
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="J249" s="13"/>
-      <c r="K249" s="24" t="s">
+      <c r="K249" s="21" t="s">
         <v>457</v>
       </c>
     </row>
@@ -20860,12 +20875,12 @@
       <c r="H250" s="13">
         <v>20221017</v>
       </c>
-      <c r="I250" s="28">
-        <f>DATE(E250,F250,G250)</f>
+      <c r="I250" s="26">
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="J250" s="13"/>
-      <c r="K250" s="24" t="s">
+      <c r="K250" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -20890,8 +20905,8 @@
       <c r="H251" s="13">
         <v>20220728</v>
       </c>
-      <c r="I251" s="28">
-        <f>DATE(E251,F251,G251)</f>
+      <c r="I251" s="26">
+        <f t="shared" si="3"/>
         <v>44770</v>
       </c>
       <c r="J251" s="13" t="s">
@@ -20922,8 +20937,8 @@
       <c r="H252" s="13">
         <v>20220728</v>
       </c>
-      <c r="I252" s="28">
-        <f>DATE(E252,F252,G252)</f>
+      <c r="I252" s="26">
+        <f t="shared" si="3"/>
         <v>44770</v>
       </c>
       <c r="J252" s="13" t="s">
@@ -20954,8 +20969,8 @@
       <c r="H253" s="13">
         <v>20220728</v>
       </c>
-      <c r="I253" s="28">
-        <f>DATE(E253,F253,G253)</f>
+      <c r="I253" s="26">
+        <f t="shared" si="3"/>
         <v>44770</v>
       </c>
       <c r="J253" s="13" t="s">
@@ -20986,8 +21001,8 @@
       <c r="H254" s="13">
         <v>20221006</v>
       </c>
-      <c r="I254" s="28">
-        <f>DATE(E254,F254,G254)</f>
+      <c r="I254" s="26">
+        <f t="shared" si="3"/>
         <v>44840</v>
       </c>
       <c r="J254" s="13" t="s">
@@ -21018,8 +21033,8 @@
       <c r="H255" s="13">
         <v>20221006</v>
       </c>
-      <c r="I255" s="28">
-        <f>DATE(E255,F255,G255)</f>
+      <c r="I255" s="26">
+        <f t="shared" si="3"/>
         <v>44840</v>
       </c>
       <c r="J255" s="13" t="s">
@@ -21050,8 +21065,8 @@
       <c r="H256" s="13">
         <v>20221006</v>
       </c>
-      <c r="I256" s="28">
-        <f>DATE(E256,F256,G256)</f>
+      <c r="I256" s="26">
+        <f t="shared" si="3"/>
         <v>44840</v>
       </c>
       <c r="J256" s="13" t="s">
@@ -29275,6 +29290,7 @@
       <sortCondition ref="D2:D256"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>